--- a/RUDN/Importance/Varible_f_reg_in_Australia and New Zealand.xlsx
+++ b/RUDN/Importance/Varible_f_reg_in_Australia and New Zealand.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="299">
   <si>
     <t>F-value</t>
   </si>
@@ -25,82 +25,127 @@
     <t>Population ages 10-14, female (% of female population)</t>
   </si>
   <si>
+    <t>Survival to age 65, male (% of cohort)</t>
+  </si>
+  <si>
     <t>Population ages10-14, male (% of male population)</t>
   </si>
   <si>
     <t>GNI per capita, PPP (current international $)</t>
   </si>
   <si>
+    <t>Mortality rate, adult, male (per 1,000 male adults)</t>
+  </si>
+  <si>
+    <t>Health expenditure per capita, PPP (constant 2011 international $)</t>
+  </si>
+  <si>
+    <t>Health expenditure per capita, PPP</t>
+  </si>
+  <si>
+    <t>Health expenditure per capita (current US$)</t>
+  </si>
+  <si>
     <t>Population ages 80 and older, male (% of male population)</t>
   </si>
   <si>
     <t>Population ages 00-14, female (% of total)</t>
   </si>
   <si>
+    <t>Survival to age 65, female (% of cohort)</t>
+  </si>
+  <si>
     <t>GNI per capita, Atlas method (current US$)</t>
   </si>
   <si>
+    <t>Population ages 0-14 (% of total)</t>
+  </si>
+  <si>
     <t>Population ages 00-14 (% of total)</t>
   </si>
   <si>
-    <t>Population ages 0-14 (% of total)</t>
+    <t>Population ages 65 and above, female (% of total)</t>
+  </si>
+  <si>
+    <t>Mortality rate, infant (per 1,000 live births)</t>
+  </si>
+  <si>
+    <t>Mortality rate, under-5 (per 1,000)</t>
   </si>
   <si>
     <t>Mortality rate, under-5 (per 1,000 live births)</t>
   </si>
   <si>
-    <t>Mortality rate, under-5 (per 1,000)</t>
-  </si>
-  <si>
-    <t>Mortality rate, infant (per 1,000 live births)</t>
-  </si>
-  <si>
     <t>Employment in industry, female (% of female employment)</t>
   </si>
   <si>
     <t>Population ages 00-14, male (% of total)</t>
   </si>
   <si>
-    <t>Population ages 65 and above, female (% of total)</t>
+    <t>Population ages 40-44, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Population ages 65 and above (% of total)</t>
   </si>
   <si>
     <t>Population ages 80 and older, female (% of female population)</t>
   </si>
   <si>
-    <t>Population ages 40-44, female (% of female population)</t>
+    <t>GDP per capita (Current US$)</t>
+  </si>
+  <si>
+    <t>Prevalence of overweight, male (% of male adults)</t>
   </si>
   <si>
     <t>Population ages 15-19, female (% of female population)</t>
   </si>
   <si>
-    <t>GDP per capita (Current US$)</t>
-  </si>
-  <si>
     <t>Population ages 25-29, male (% of male population)</t>
   </si>
   <si>
-    <t>Population ages 65 and above (% of total)</t>
-  </si>
-  <si>
     <t>Population ages 65 and above, male (% of total)</t>
   </si>
   <si>
+    <t>Tuberculosis death rate (per 100,000 people), including HIV</t>
+  </si>
+  <si>
+    <t>Tuberculosis death rate (per 100,000 people)</t>
+  </si>
+  <si>
+    <t>Mortality rate, adult, female (per 1,000 female adults)</t>
+  </si>
+  <si>
     <t>Age dependency ratio, young</t>
   </si>
   <si>
+    <t>Population ages 05-09, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Population ages 60-64, female (% of female population)</t>
+  </si>
+  <si>
     <t>Employment in services, female (% of female employment)</t>
   </si>
   <si>
-    <t>Population ages 60-64, female (% of female population)</t>
+    <t>Age dependency ratio, old</t>
+  </si>
+  <si>
+    <t>Population ages 05-09, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Vulnerable employment, total (% of total employment)</t>
+  </si>
+  <si>
+    <t>Population ages 60-64, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Gross graduation ratio, tertiary, male (%)</t>
   </si>
   <si>
     <t>Vulnerable employment, male (% of male employment)</t>
   </si>
   <si>
-    <t>Age dependency ratio, old</t>
-  </si>
-  <si>
-    <t>Population ages 60-64, male (% of male population)</t>
+    <t>Population ages 55-59, female (% of female population)</t>
   </si>
   <si>
     <t>Population ages 25-29, female (% of female population)</t>
@@ -109,646 +154,763 @@
     <t>Years</t>
   </si>
   <si>
-    <t>Vulnerable employment, total (% of total employment)</t>
+    <t>Health expenditure, total (current US$)</t>
+  </si>
+  <si>
+    <t>Gross graduation ratio, tertiary, female (%)</t>
+  </si>
+  <si>
+    <t>Population ages 65-69, male (% of male population)</t>
+  </si>
+  <si>
+    <t>GNI, Atlas method (current US$)</t>
+  </si>
+  <si>
+    <t>Prevalence of obesity, male (% of male population ages 18+)</t>
+  </si>
+  <si>
+    <t>Population ages 65-69, female (% of female population)</t>
   </si>
   <si>
     <t>Population ages 15-19, male (% of male population)</t>
   </si>
   <si>
-    <t>Population ages 05-09, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Population ages 65-69, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Population ages 05-09, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Population ages 55-59, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Population ages 65-69, female (% of female population)</t>
-  </si>
-  <si>
-    <t>GNI, Atlas method (current US$)</t>
+    <t>GDP (current US$)</t>
+  </si>
+  <si>
+    <t>Prevalence of anemia among children (% of children under 5)</t>
+  </si>
+  <si>
+    <t>Population ages 70-74, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Employment in agriculture, female (% of female employment)</t>
+  </si>
+  <si>
+    <t>Immunization, measles (% of children ages 12-23 months)</t>
+  </si>
+  <si>
+    <t>Net ODA provided, total (current US$)</t>
   </si>
   <si>
     <t>Employment in services, male (% of male employment)</t>
   </si>
   <si>
-    <t>Immunization, measles (% of children ages 12-23 months)</t>
-  </si>
-  <si>
-    <t>GDP (current US$)</t>
-  </si>
-  <si>
-    <t>Employment in agriculture, female (% of female employment)</t>
-  </si>
-  <si>
-    <t>Prevalence of anemia among children (% of children under 5)</t>
+    <t>Net ODA provided to the least developed countries (current US$)</t>
+  </si>
+  <si>
+    <t>School enrollment, secondary, female (% net)</t>
+  </si>
+  <si>
+    <t>School enrollment, secondary (% net)</t>
+  </si>
+  <si>
+    <t>School enrollment, secondary, male (% net)</t>
+  </si>
+  <si>
+    <t>Population ages 70-74, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Urban population (% of total)</t>
+  </si>
+  <si>
+    <t>Rural population (% of total population)</t>
+  </si>
+  <si>
+    <t>Net ODA provided, total (% of GNI)</t>
+  </si>
+  <si>
+    <t>Net ODA provided, total (constant 2015 US$)</t>
+  </si>
+  <si>
+    <t>Adolescent fertility rate (births per 1,000 women ages 15-19)</t>
+  </si>
+  <si>
+    <t>Total bilateral sector allocable ODA commitments (current US$)</t>
   </si>
   <si>
     <t>Mortality rate, neonatal (per 1,000 live births)</t>
   </si>
   <si>
-    <t>Population ages 70-74, male (% of male population)</t>
-  </si>
-  <si>
     <t>GDP per person employed (constant 2011 PPP $)</t>
   </si>
   <si>
-    <t>Rural population (% of total population)</t>
-  </si>
-  <si>
-    <t>Urban population (% of total)</t>
-  </si>
-  <si>
-    <t>Bilateral ODA commitments that is untied (% of bilateral ODA commitments)</t>
+    <t>Female population 65-69</t>
+  </si>
+  <si>
+    <t>Male population 80+</t>
+  </si>
+  <si>
+    <t>Male population 65-69</t>
+  </si>
+  <si>
+    <t>Employment in agriculture, male (% of male employment)</t>
+  </si>
+  <si>
+    <t>Maternal mortality ratio (modeled estimate, per 100,000 live births)</t>
+  </si>
+  <si>
+    <t>Incidence of tuberculosis (per 100,000 people)</t>
+  </si>
+  <si>
+    <t>Health expenditure, private (% of GDP)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary and secondary (gross), gender parity index (GPI)</t>
+  </si>
+  <si>
+    <t>School enrollment, tertiary, male (% gross)</t>
+  </si>
+  <si>
+    <t>Female population 60-64</t>
+  </si>
+  <si>
+    <t>Population ages 50-54, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Bilateral, sector-allocable ODA to basic social services (current US$)</t>
+  </si>
+  <si>
+    <t>Antiretroviral therapy coverage for PMTCT (% of pregnant women living with HIV)</t>
   </si>
   <si>
     <t>Employment to population ratio, 15+, male (%) (modeled ILO estimate)</t>
   </si>
   <si>
-    <t>Female population 65-69</t>
-  </si>
-  <si>
-    <t>Population ages 70-74, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Male population 65-69</t>
-  </si>
-  <si>
-    <t>Male population 80+</t>
-  </si>
-  <si>
-    <t>Antiretroviral therapy coverage for PMTCT (% of pregnant women living with HIV)</t>
+    <t>Mobile cellular subscriptions (per 100 people)</t>
+  </si>
+  <si>
+    <t>Male population 60-64</t>
+  </si>
+  <si>
+    <t>Secondary education, pupils (% female)</t>
+  </si>
+  <si>
+    <t>Population ages 65 and above, male</t>
+  </si>
+  <si>
+    <t>Lifetime risk of maternal death (%)</t>
+  </si>
+  <si>
+    <t>Lifetime risk of maternal death (1 in: rate varies by country)</t>
   </si>
   <si>
     <t>Immunization, Pol3 (% of one-year-old children)</t>
   </si>
   <si>
-    <t>Employment in agriculture, male (% of male employment)</t>
-  </si>
-  <si>
-    <t>Female population 60-64</t>
+    <t>School enrollment, secondary (gross), gender parity index (GPI)</t>
+  </si>
+  <si>
+    <t>Age population, age 25, male, interpolated</t>
+  </si>
+  <si>
+    <t>Population ages 65 and above, total</t>
+  </si>
+  <si>
+    <t>Population ages 35-39, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Male population 70-74</t>
+  </si>
+  <si>
+    <t>Sex ratio at birth (male births per female births)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, 15+, male (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Population ages 40-44, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Age population, age 24, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 25, female, interpolated</t>
+  </si>
+  <si>
+    <t>Out-of-pocket health expenditure (% of private expenditure on health)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary, male (% gross)</t>
+  </si>
+  <si>
+    <t>Population ages 65 and above, female</t>
+  </si>
+  <si>
+    <t>Population ages 50-54, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Male population 25-29</t>
+  </si>
+  <si>
+    <t>Own-account workers, male (% of males employed)</t>
+  </si>
+  <si>
+    <t>Time required to start a business, male (days)</t>
+  </si>
+  <si>
+    <t>Time required to start a business, female (days)</t>
+  </si>
+  <si>
+    <t>Female population 70-74</t>
   </si>
   <si>
     <t>Labor force participation rate, male (% of male population ages 15+) (modeled ILO estimate)</t>
   </si>
   <si>
-    <t>Population ages 65 and above, male</t>
-  </si>
-  <si>
-    <t>Male population 60-64</t>
-  </si>
-  <si>
-    <t>Mobile cellular subscriptions (per 100 people)</t>
-  </si>
-  <si>
-    <t>Own-account workers, male (% of males employed)</t>
-  </si>
-  <si>
-    <t>Population ages 65 and above, total</t>
-  </si>
-  <si>
-    <t>Male population 70-74</t>
-  </si>
-  <si>
-    <t>Age population, age 25, male, interpolated</t>
-  </si>
-  <si>
-    <t>Female population 70-74</t>
-  </si>
-  <si>
-    <t>Population ages 65 and above, female</t>
+    <t>Age population, age 24, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 23, male, interpolated</t>
+  </si>
+  <si>
+    <t>School enrollment, primary (% gross)</t>
+  </si>
+  <si>
+    <t>Female population 80+</t>
+  </si>
+  <si>
+    <t>Female population 25-29</t>
+  </si>
+  <si>
+    <t>Age population, age 03, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 02, male, interpolated</t>
+  </si>
+  <si>
+    <t>Labor force, female</t>
+  </si>
+  <si>
+    <t>Age population, age 02, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 03, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 22, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 23, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 01, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 01, female, interpolated</t>
+  </si>
+  <si>
+    <t>Male population 20-24</t>
+  </si>
+  <si>
+    <t>Adults (ages 15+) living with HIV</t>
+  </si>
+  <si>
+    <t>Adults (ages 15+) and children (0-14 years) living with HIV</t>
+  </si>
+  <si>
+    <t>Female population 55-59</t>
+  </si>
+  <si>
+    <t>Male population 00-04</t>
+  </si>
+  <si>
+    <t>Age population, age 04, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 04, male, interpolated</t>
+  </si>
+  <si>
+    <t>Female population 00-04</t>
+  </si>
+  <si>
+    <t>Female population 50-54</t>
+  </si>
+  <si>
+    <t>Educational attainment, at least completed upper secondary, population 25+, female (%) (cumulative)</t>
+  </si>
+  <si>
+    <t>Age population, age 0, male, interpolated</t>
+  </si>
+  <si>
+    <t>Educational attainment, at least completed post-secondary, population 25+, female (%) (cumulative)</t>
+  </si>
+  <si>
+    <t>Age population, age 0, female, interpolated</t>
+  </si>
+  <si>
+    <t>Educational attainment, at least completed short-cycle tertiary, population 25+, female (%) (cumulative)</t>
+  </si>
+  <si>
+    <t>Educational attainment, at least completed post-secondary, population 25+, male (%) (cumulative)</t>
+  </si>
+  <si>
+    <t>Educational attainment, at least completed upper secondary, population 25+, male (%) (cumulative)</t>
+  </si>
+  <si>
+    <t>Educational attainment, at least completed short-cycle tertiary, population 25+, male (%) (cumulative)</t>
+  </si>
+  <si>
+    <t>Female share of employment in senior and middle management (%)</t>
+  </si>
+  <si>
+    <t>Educational attainment, completed post-secondary, population 25+ years, male (%)</t>
+  </si>
+  <si>
+    <t>Educational attainment, at least completed lower secondary, population 25+, female (%) (cumulative)</t>
+  </si>
+  <si>
+    <t>Labor force, total</t>
+  </si>
+  <si>
+    <t>Educational attainment, completed post-secondary, population 25+ years, female (%)</t>
+  </si>
+  <si>
+    <t>Age population, age 21, male, interpolated</t>
+  </si>
+  <si>
+    <t>Educational attainment, completed upper secondary, population 25+ years, female (%)</t>
+  </si>
+  <si>
+    <t>Educational attainment, at least completed lower secondary, population 25+, male (%) (cumulative)</t>
+  </si>
+  <si>
+    <t>Educational attainment, completed primary, population 25+ years, male (%)</t>
+  </si>
+  <si>
+    <t>Age population, age 22, female, interpolated</t>
+  </si>
+  <si>
+    <t>Educational attainment, completed upper secondary, population 25+ years, male (%)</t>
+  </si>
+  <si>
+    <t>Educational attainment, completed primary, population 25+ years, female (%)</t>
   </si>
   <si>
     <t>Population ages 45-49, male (% of male population)</t>
   </si>
   <si>
+    <t>Net ODA provided to the least developed countries (% of donor GNI)</t>
+  </si>
+  <si>
+    <t>Educational attainment, completed lower secondary, population 25+ years, male (%)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary, female (% gross)</t>
+  </si>
+  <si>
+    <t>Educational attainment, completed Bachelor's or equivalent, population 25+ years, female (%)</t>
+  </si>
+  <si>
+    <t>Educational attainment, completed Bachelor's or equivalent, population 25+ years, male (%)</t>
+  </si>
+  <si>
+    <t>Educational attainment, completed lower secondary, population 25+ years, female (%)</t>
+  </si>
+  <si>
+    <t>Female population 20-24</t>
+  </si>
+  <si>
+    <t>Male population 50-54</t>
+  </si>
+  <si>
+    <t>Labor force participation rate, male (% of male population ages 15+) (national estimate)</t>
+  </si>
+  <si>
+    <t>Unemployment with basic education, male (% of male labor force with basic education)</t>
+  </si>
+  <si>
+    <t>Unemployment with basic education, female (% of female labor force with basic education)</t>
+  </si>
+  <si>
+    <t>Population ages 20-24, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Urban population</t>
+  </si>
+  <si>
+    <t>Age population, age 05, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 20, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 05, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 21, female, interpolated</t>
+  </si>
+  <si>
+    <t>Population, female</t>
+  </si>
+  <si>
+    <t>Population, total</t>
+  </si>
+  <si>
+    <t>Population, male</t>
+  </si>
+  <si>
+    <t>Population, male (% of total)</t>
+  </si>
+  <si>
+    <t>Population, female (% of total)</t>
+  </si>
+  <si>
+    <t>Population ages 15-64, female</t>
+  </si>
+  <si>
+    <t>Male population 75-79</t>
+  </si>
+  <si>
+    <t>Male population 55-59</t>
+  </si>
+  <si>
+    <t>Population ages 15-64, total</t>
+  </si>
+  <si>
+    <t>Population ages 15-64, male</t>
+  </si>
+  <si>
+    <t>Age population, age 19, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 20, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 06, female, interpolated</t>
+  </si>
+  <si>
+    <t>Ratio of female to male youth unemployment rate (% ages 15-24) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Ratio of female to male youth unemployment rate (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Age population, age 06, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 19, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 18, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 07, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 18, female, interpolated</t>
+  </si>
+  <si>
+    <t>Female population 45-49</t>
+  </si>
+  <si>
+    <t>Population ages 0-14, female</t>
+  </si>
+  <si>
+    <t>Population ages 00-14, total</t>
+  </si>
+  <si>
+    <t>Age population, age 17, male, interpolated</t>
+  </si>
+  <si>
+    <t>Female population 05-09</t>
+  </si>
+  <si>
+    <t>Age population, age 07, male, interpolated</t>
+  </si>
+  <si>
+    <t>Population ages 0-14, male</t>
+  </si>
+  <si>
+    <t>Male population 45-49</t>
+  </si>
+  <si>
+    <t>Vulnerable employment, female (% of female employment)</t>
+  </si>
+  <si>
+    <t>Age population, age 17, female, interpolated</t>
+  </si>
+  <si>
+    <t>Male population 30-34</t>
+  </si>
+  <si>
+    <t>Male population 15-19</t>
+  </si>
+  <si>
+    <t>Male population 05-09</t>
+  </si>
+  <si>
+    <t>Female population 15-19</t>
+  </si>
+  <si>
+    <t>Age population, age 08, female, interpolated</t>
+  </si>
+  <si>
+    <t>Female population 75-79</t>
+  </si>
+  <si>
+    <t>Age population, age 16, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 16, female, interpolated</t>
+  </si>
+  <si>
+    <t>Population ages 20-24, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Female population 30-34</t>
+  </si>
+  <si>
+    <t>CO2 emissions (kt)</t>
+  </si>
+  <si>
+    <t>AIDS estimated deaths (UNAIDS estimates)</t>
+  </si>
+  <si>
+    <t>Rural population</t>
+  </si>
+  <si>
+    <t>Female population 40-44</t>
+  </si>
+  <si>
+    <t>Age population, age 08, male, interpolated</t>
+  </si>
+  <si>
+    <t>Female population 35-39</t>
+  </si>
+  <si>
+    <t>Age population, age 15, female, interpolated</t>
+  </si>
+  <si>
+    <t>Male population 35-39</t>
+  </si>
+  <si>
+    <t>Adults (ages 15+) and children (ages 0-14) newly infected with HIV</t>
+  </si>
+  <si>
+    <t>Adults (ages 15+) newly infected with HIV</t>
+  </si>
+  <si>
+    <t>Age population, age 09, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 15, male, interpolated</t>
+  </si>
+  <si>
+    <t>Access to anti-retroviral drugs, female (%)</t>
+  </si>
+  <si>
+    <t>Age population, age 14, female, interpolated</t>
+  </si>
+  <si>
+    <t>Antiretroviral therapy coverage (% of people living with HIV)</t>
+  </si>
+  <si>
+    <t>Forest area (% of land area)</t>
+  </si>
+  <si>
+    <t>Access to anti-retroviral drugs, male (%)</t>
+  </si>
+  <si>
+    <t>Proportion of women in ministerial level positions (%)</t>
+  </si>
+  <si>
+    <t>Male population 40-44</t>
+  </si>
+  <si>
+    <t>Age population, age 09, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 10, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 14, male, interpolated</t>
+  </si>
+  <si>
+    <t>Goods (excluding arms) admitted free of tariffs from developing countries (% total merchandise imports excluding arms)</t>
+  </si>
+  <si>
+    <t>Age population, age 13, female, interpolated</t>
+  </si>
+  <si>
+    <t>Women's share of population ages 15+ living with HIV (%)</t>
+  </si>
+  <si>
+    <t>People using safely managed drinking water services, urban (% of urban population)</t>
+  </si>
+  <si>
+    <t>Goods (excluding arms) admitted free of tariffs from least developed countries (% total merchandise imports excluding arms)</t>
+  </si>
+  <si>
+    <t>People practicing open defecation, urban (% of urban population)</t>
+  </si>
+  <si>
+    <t>People practicing open defecation, rural (% of rural population)</t>
+  </si>
+  <si>
+    <t>People using basic sanitation services, rural (% of rural population)</t>
+  </si>
+  <si>
+    <t>People using basic sanitation services, urban  (% of urban population)</t>
+  </si>
+  <si>
+    <t>Children (ages 0-14) newly infected with HIV</t>
+  </si>
+  <si>
+    <t>Improved sanitation facilities (% of population with access)</t>
+  </si>
+  <si>
+    <t>Improved sanitation facilities, rural (% of rural population with access)</t>
+  </si>
+  <si>
+    <t>Improved sanitation facilities, urban (% of urban population with access)</t>
+  </si>
+  <si>
+    <t>Children (0-14) living with HIV</t>
+  </si>
+  <si>
+    <t>Prevalence of HIV, female (% ages 15-24)</t>
+  </si>
+  <si>
+    <t>Prevalence of HIV, male (% ages 15-24)</t>
+  </si>
+  <si>
+    <t>Prevalence of HIV, total (% of population ages 15-49)</t>
+  </si>
+  <si>
+    <t>Incidence of HIV (% of uninfected population ages 15-49)</t>
+  </si>
+  <si>
+    <t>Country_code</t>
+  </si>
+  <si>
+    <t>Average tariffs imposed by developed countries on textile products from least developed countries (%)</t>
+  </si>
+  <si>
+    <t>Average tariffs imposed by developed countries on agricultural products from least developed countries (%)</t>
+  </si>
+  <si>
     <t>Primary education, teachers (% female)</t>
   </si>
   <si>
+    <t>Average tariffs imposed by developed countries on agricultural products from developing countries (%)</t>
+  </si>
+  <si>
+    <t>Average tariffs imposed by developed countries on clothing products from least developed countries (%)</t>
+  </si>
+  <si>
+    <t>Physicians (per 1,000 people)</t>
+  </si>
+  <si>
+    <t>Tertiary education, academic staff (% female)</t>
+  </si>
+  <si>
     <t>Secondary education, teachers (% female)</t>
   </si>
   <si>
-    <t>Age population, age 24, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 25, female, interpolated</t>
-  </si>
-  <si>
-    <t>Population ages 40-44, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Male population 25-29</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, 15+, male (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>Population ages 35-39, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Mortality rate, adult, female (per 1,000 female adults)</t>
-  </si>
-  <si>
-    <t>Mortality rate, adult, male (per 1,000 male adults)</t>
-  </si>
-  <si>
-    <t>Female population 80+</t>
-  </si>
-  <si>
-    <t>Age population, age 24, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 23, male, interpolated</t>
-  </si>
-  <si>
-    <t>Female population 25-29</t>
-  </si>
-  <si>
-    <t>Population ages 50-54, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Time required to start a business, female (days)</t>
-  </si>
-  <si>
-    <t>Time required to start a business, male (days)</t>
-  </si>
-  <si>
-    <t>Labor force, female</t>
-  </si>
-  <si>
-    <t>Age population, age 03, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 03, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 02, male, interpolated</t>
-  </si>
-  <si>
-    <t>Female population 55-59</t>
-  </si>
-  <si>
-    <t>Age population, age 02, female, interpolated</t>
-  </si>
-  <si>
-    <t>Adults (ages 15+) living with HIV</t>
-  </si>
-  <si>
-    <t>Adults (ages 15+) and children (0-14 years) living with HIV</t>
-  </si>
-  <si>
-    <t>Age population, age 22, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 23, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 04, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 04, male, interpolated</t>
-  </si>
-  <si>
-    <t>Male population 20-24</t>
-  </si>
-  <si>
-    <t>Age population, age 01, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 01, female, interpolated</t>
-  </si>
-  <si>
-    <t>Female population 50-54</t>
-  </si>
-  <si>
-    <t>Male population 00-04</t>
-  </si>
-  <si>
-    <t>Female population 00-04</t>
-  </si>
-  <si>
-    <t>Ratio of female to male youth unemployment rate (% ages 15-24) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Labor force, total</t>
-  </si>
-  <si>
-    <t>Male population 50-54</t>
-  </si>
-  <si>
-    <t>Age population, age 0, female, interpolated</t>
-  </si>
-  <si>
-    <t>Ratio of female to male youth unemployment rate (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>Age population, age 0, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 22, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 05, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 21, male, interpolated</t>
-  </si>
-  <si>
-    <t>Urban population</t>
-  </si>
-  <si>
-    <t>Female population 20-24</t>
-  </si>
-  <si>
-    <t>Age population, age 05, male, interpolated</t>
-  </si>
-  <si>
-    <t>Tertiary education, academic staff (% female)</t>
-  </si>
-  <si>
-    <t>Male population 75-79</t>
-  </si>
-  <si>
-    <t>Population, female</t>
-  </si>
-  <si>
-    <t>Population, total</t>
-  </si>
-  <si>
-    <t>Population, male</t>
-  </si>
-  <si>
-    <t>Net ODA provided, total (current US$)</t>
-  </si>
-  <si>
-    <t>Male population 55-59</t>
-  </si>
-  <si>
-    <t>Labor force participation rate, male (% of male population ages 15+) (national estimate)</t>
-  </si>
-  <si>
-    <t>Net ODA provided to the least developed countries (current US$)</t>
-  </si>
-  <si>
-    <t>Population ages 15-64, female</t>
-  </si>
-  <si>
-    <t>Age population, age 21, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 06, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 20, male, interpolated</t>
-  </si>
-  <si>
-    <t>Population ages 15-64, total</t>
-  </si>
-  <si>
-    <t>Population ages 50-54, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Population ages 15-64, male</t>
+    <t>Nurses and midwives (per 1,000 people)</t>
+  </si>
+  <si>
+    <t>Average tariffs imposed by developed countries on textile products from developing countries (%)</t>
+  </si>
+  <si>
+    <t>Age population, age 11, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 12, female, interpolated</t>
+  </si>
+  <si>
+    <t>Female population 10-14</t>
+  </si>
+  <si>
+    <t>Average tariffs imposed by developed countries on clothing products from developing countries (%)</t>
+  </si>
+  <si>
+    <t>Immunization, Hib3 (% of children ages 12-23 months)</t>
+  </si>
+  <si>
+    <t>Age population, age 13, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 10, male, interpolated</t>
+  </si>
+  <si>
+    <t>People using safely managed drinking water services (% of population)</t>
+  </si>
+  <si>
+    <t>Trade (% of GDP)</t>
   </si>
   <si>
     <t>Population ages 45-49, female (% of female population)</t>
   </si>
   <si>
-    <t>Age population, age 06, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 20, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 19, male, interpolated</t>
-  </si>
-  <si>
-    <t>Population, female (% of total)</t>
-  </si>
-  <si>
-    <t>Population, male (% of total)</t>
-  </si>
-  <si>
-    <t>Age population, age 07, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 19, female, interpolated</t>
-  </si>
-  <si>
-    <t>Female population 05-09</t>
-  </si>
-  <si>
-    <t>Age population, age 07, male, interpolated</t>
-  </si>
-  <si>
-    <t>Population ages 0-14, female</t>
-  </si>
-  <si>
-    <t>Male population 30-34</t>
-  </si>
-  <si>
-    <t>Age population, age 18, male, interpolated</t>
-  </si>
-  <si>
-    <t>Population ages 00-14, total</t>
-  </si>
-  <si>
-    <t>Female population 45-49</t>
-  </si>
-  <si>
-    <t>Male population 05-09</t>
-  </si>
-  <si>
-    <t>Age population, age 18, female, interpolated</t>
-  </si>
-  <si>
-    <t>Population ages 0-14, male</t>
-  </si>
-  <si>
-    <t>Age population, age 08, female, interpolated</t>
-  </si>
-  <si>
-    <t>Female population 75-79</t>
-  </si>
-  <si>
-    <t>Female population 30-34</t>
-  </si>
-  <si>
-    <t>People practicing open defecation, rural (% of rural population)</t>
-  </si>
-  <si>
-    <t>People practicing open defecation, urban (% of urban population)</t>
-  </si>
-  <si>
-    <t>People using basic sanitation services, rural (% of rural population)</t>
-  </si>
-  <si>
-    <t>People using basic sanitation services, urban  (% of urban population)</t>
-  </si>
-  <si>
-    <t>Male population 45-49</t>
-  </si>
-  <si>
-    <t>Total bilateral sector allocable ODA commitments (current US$)</t>
-  </si>
-  <si>
-    <t>Age population, age 17, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 17, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 08, male, interpolated</t>
-  </si>
-  <si>
-    <t>Male population 15-19</t>
+    <t>Forest area (sq. km)</t>
+  </si>
+  <si>
+    <t>Male population 10-14</t>
+  </si>
+  <si>
+    <t>Age population, age 12, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 11, male, interpolated</t>
   </si>
   <si>
     <t>Immunization, DPT (% of children ages 12-23 months)</t>
   </si>
   <si>
-    <t>People using safely managed drinking water services (% of population)</t>
-  </si>
-  <si>
-    <t>Female population 15-19</t>
-  </si>
-  <si>
-    <t>Age population, age 16, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 09, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 16, male, interpolated</t>
-  </si>
-  <si>
-    <t>Female population 40-44</t>
-  </si>
-  <si>
-    <t>Rural population</t>
-  </si>
-  <si>
-    <t>Bilateral, sector-allocable ODA to basic social services (current US$)</t>
-  </si>
-  <si>
-    <t>Female population 35-39</t>
-  </si>
-  <si>
-    <t>Age population, age 15, female, interpolated</t>
-  </si>
-  <si>
-    <t>Male population 35-39</t>
-  </si>
-  <si>
-    <t>Adults (ages 15+) newly infected with HIV</t>
-  </si>
-  <si>
-    <t>Adults (ages 15+) and children (ages 0-14) newly infected with HIV</t>
-  </si>
-  <si>
-    <t>AIDS estimated deaths (UNAIDS estimates)</t>
-  </si>
-  <si>
-    <t>Age population, age 09, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 15, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 10, female, interpolated</t>
-  </si>
-  <si>
-    <t>Immunization, Hib3 (% of children ages 12-23 months)</t>
-  </si>
-  <si>
-    <t>Access to anti-retroviral drugs, female (%)</t>
-  </si>
-  <si>
-    <t>Male population 40-44</t>
-  </si>
-  <si>
-    <t>Antiretroviral therapy coverage (% of people living with HIV)</t>
-  </si>
-  <si>
-    <t>Access to anti-retroviral drugs, male (%)</t>
+    <t>Births attended by skilled health staff (% of total)</t>
+  </si>
+  <si>
+    <t>School enrollment, tertiary (% gross)</t>
+  </si>
+  <si>
+    <t>Unemployment, male (% of male labor force) (national estimate)</t>
   </si>
   <si>
     <t>Prevalence of anemia among pregnant women (%)</t>
   </si>
   <si>
-    <t>Age population, age 14, female, interpolated</t>
-  </si>
-  <si>
-    <t>Net ODA provided, total (constant 2015 US$)</t>
-  </si>
-  <si>
-    <t>Age population, age 11, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 13, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 14, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 10, male, interpolated</t>
-  </si>
-  <si>
-    <t>Female population 10-14</t>
-  </si>
-  <si>
-    <t>Women's share of population ages 15+ living with HIV (%)</t>
-  </si>
-  <si>
-    <t>Age population, age 12, female, interpolated</t>
-  </si>
-  <si>
-    <t>Children (0-14) living with HIV</t>
-  </si>
-  <si>
-    <t>Children (ages 0-14) newly infected with HIV</t>
-  </si>
-  <si>
-    <t>Prevalence of HIV, total (% of population ages 15-49)</t>
-  </si>
-  <si>
-    <t>Prevalence of HIV, female (% ages 15-24)</t>
-  </si>
-  <si>
-    <t>Incidence of HIV (% of uninfected population ages 15-49)</t>
-  </si>
-  <si>
-    <t>Prevalence of HIV, male (% ages 15-24)</t>
-  </si>
-  <si>
-    <t>Country_code</t>
+    <t>Number of maternal deaths</t>
+  </si>
+  <si>
+    <t>Unemployment, male (% of male labor force)</t>
+  </si>
+  <si>
+    <t>Unemployment, male (% of male labor force) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Unemployment, total (% of total labor force)</t>
+  </si>
+  <si>
+    <t>Total bilateral ODA commitments (current US$)</t>
+  </si>
+  <si>
+    <t>Agricultural support estimate (% of GDP)</t>
+  </si>
+  <si>
+    <t>Expected years of schooling, male</t>
+  </si>
+  <si>
+    <t>Bilateral ODA commitments that is untied (current US$)</t>
+  </si>
+  <si>
+    <t>Wage and salaried workers, male (% of male employment)</t>
+  </si>
+  <si>
+    <t>Number of neonatal deaths</t>
+  </si>
+  <si>
+    <t>CO2 emissions (metric tons per capita)</t>
   </si>
   <si>
     <t>Employment in industry, male (% of male employment)</t>
   </si>
   <si>
-    <t>Age population, age 13, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 11, male, interpolated</t>
-  </si>
-  <si>
-    <t>Male population 10-14</t>
-  </si>
-  <si>
-    <t>Age population, age 12, male, interpolated</t>
-  </si>
-  <si>
-    <t>Unemployment, male (% of male labor force) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Unemployment, male (% of male labor force)</t>
-  </si>
-  <si>
-    <t>Unemployment, male (% of male labor force) (national estimate)</t>
-  </si>
-  <si>
-    <t>Unemployment, total (% of total labor force)</t>
-  </si>
-  <si>
-    <t>Educational attainment, at least completed upper secondary, population 25+, female (%) (cumulative)</t>
-  </si>
-  <si>
-    <t>Educational attainment, at least completed post-secondary, population 25+, female (%) (cumulative)</t>
-  </si>
-  <si>
-    <t>Educational attainment, at least completed short-cycle tertiary, population 25+, female (%) (cumulative)</t>
-  </si>
-  <si>
-    <t>Educational attainment, at least completed post-secondary, population 25+, male (%) (cumulative)</t>
-  </si>
-  <si>
-    <t>Educational attainment, at least completed upper secondary, population 25+, male (%) (cumulative)</t>
-  </si>
-  <si>
-    <t>Educational attainment, at least completed short-cycle tertiary, population 25+, male (%) (cumulative)</t>
-  </si>
-  <si>
-    <t>Educational attainment, completed post-secondary, population 25+ years, male (%)</t>
-  </si>
-  <si>
-    <t>Educational attainment, at least completed lower secondary, population 25+, female (%) (cumulative)</t>
-  </si>
-  <si>
-    <t>Educational attainment, completed post-secondary, population 25+ years, female (%)</t>
-  </si>
-  <si>
-    <t>Educational attainment, completed upper secondary, population 25+ years, female (%)</t>
-  </si>
-  <si>
-    <t>Educational attainment, at least completed lower secondary, population 25+, male (%) (cumulative)</t>
-  </si>
-  <si>
-    <t>Educational attainment, completed primary, population 25+ years, male (%)</t>
-  </si>
-  <si>
-    <t>Educational attainment, completed upper secondary, population 25+ years, male (%)</t>
-  </si>
-  <si>
-    <t>Educational attainment, completed primary, population 25+ years, female (%)</t>
-  </si>
-  <si>
-    <t>Educational attainment, completed lower secondary, population 25+ years, male (%)</t>
-  </si>
-  <si>
-    <t>Educational attainment, completed Bachelor's or equivalent, population 25+ years, female (%)</t>
-  </si>
-  <si>
-    <t>Educational attainment, completed Bachelor's or equivalent, population 25+ years, male (%)</t>
-  </si>
-  <si>
-    <t>Educational attainment, completed lower secondary, population 25+ years, female (%)</t>
-  </si>
-  <si>
     <t>Population ages 55-59, male (% of male population)</t>
   </si>
   <si>
-    <t>Share of women in wage employment in the nonagricultural sector (% of total nonagricultural employment)</t>
-  </si>
-  <si>
-    <t>Share of women employed in the nonagricultural sector (% of total nonagricultural employment)</t>
-  </si>
-  <si>
-    <t>Wage and salaried workers, male (% of male employment)</t>
-  </si>
-  <si>
-    <t>Population ages 75-79, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Contributing family workers, female (% of female employment)</t>
-  </si>
-  <si>
-    <t>Health expenditure, total (current US$)</t>
-  </si>
-  <si>
-    <t>Sex ratio at birth (male births per female births)</t>
-  </si>
-  <si>
-    <t>Population ages 20-24, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Unemployment, female (% of female labor force) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Unemployment, female (% of female labor force)</t>
-  </si>
-  <si>
-    <t>Number of neonatal deaths</t>
-  </si>
-  <si>
-    <t>Unemployment, female (% of female labor force) (national estimate)</t>
-  </si>
-  <si>
-    <t>Vulnerable employment, female (% of female employment)</t>
+    <t>Self-employed, male (% of male employment)</t>
   </si>
 </sst>
 </file>
@@ -1106,7 +1268,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C244"/>
+  <dimension ref="A1:C298"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1125,7 +1287,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>783.8568218164223</v>
+        <v>716.5660187270039</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -1136,7 +1298,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>732.8035995158305</v>
+        <v>688.6268856723227</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -1147,7 +1309,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>555.7692654024548</v>
+        <v>641.8289021442699</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -1158,7 +1320,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>270.5579297861862</v>
+        <v>475.155129686526</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -1169,7 +1331,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>209.6397325366885</v>
+        <v>356.3913031838883</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -1180,7 +1342,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>188.3982209097717</v>
+        <v>282.2695304181931</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -1191,7 +1353,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>165.9195483634305</v>
+        <v>282.2695304181931</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -1202,7 +1364,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>165.9195483634305</v>
+        <v>256.5625742923842</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -1213,7 +1375,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>163.4069645369412</v>
+        <v>243.4294982951924</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -1224,7 +1386,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>163.4069645369412</v>
+        <v>190.3057530200718</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -1235,7 +1397,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>163.3368891590462</v>
+        <v>178.1527305339767</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -1246,7 +1408,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>149.9607012416023</v>
+        <v>177.2149649505151</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -1257,7 +1419,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>133.2763819945366</v>
+        <v>150.2156156576007</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -1268,7 +1430,7 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>123.1887017836439</v>
+        <v>150.2156156576007</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -1279,7 +1441,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>116.6091085970105</v>
+        <v>147.2925455084104</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -1290,7 +1452,7 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>110.3974260609994</v>
+        <v>142.5945924121536</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -1301,7 +1463,7 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>103.6171270152125</v>
+        <v>140.8967015585279</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -1312,7 +1474,7 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>99.31265879726104</v>
+        <v>140.8967015585279</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -1323,7 +1485,7 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>98.67080127416253</v>
+        <v>122.7857546912522</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -1334,7 +1496,7 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>98.62528426861233</v>
+        <v>121.1512555640626</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -1345,7 +1507,7 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>79.85305844232531</v>
+        <v>116.5955708166526</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -1356,7 +1518,7 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>71.80343010812943</v>
+        <v>112.8271880214592</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -1367,7 +1529,7 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>71.57466373192301</v>
+        <v>112.1081960288721</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -1378,7 +1540,7 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>66.78656381181153</v>
+        <v>111.8084410316817</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -1389,7 +1551,7 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>59.64059415113068</v>
+        <v>108.9376322018825</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -1400,7 +1562,7 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>57.03276067215738</v>
+        <v>87.68059546903477</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -1411,7 +1573,7 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>56.24460843783861</v>
+        <v>85.4188519654286</v>
       </c>
       <c r="C28">
         <v>0</v>
@@ -1422,7 +1584,7 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>55.73368123769764</v>
+        <v>85.41686179343239</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -1433,7 +1595,7 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>50.67426946481665</v>
+        <v>76.49340327095068</v>
       </c>
       <c r="C30">
         <v>0</v>
@@ -1444,7 +1606,7 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>50.66933855160973</v>
+        <v>76.49340327095068</v>
       </c>
       <c r="C31">
         <v>0</v>
@@ -1455,7 +1617,7 @@
         <v>32</v>
       </c>
       <c r="B32">
-        <v>47.93453703442755</v>
+        <v>74.0516663485805</v>
       </c>
       <c r="C32">
         <v>0</v>
@@ -1466,7 +1628,7 @@
         <v>33</v>
       </c>
       <c r="B33">
-        <v>47.40220620431905</v>
+        <v>72.32845297004721</v>
       </c>
       <c r="C33">
         <v>0</v>
@@ -1477,7 +1639,7 @@
         <v>34</v>
       </c>
       <c r="B34">
-        <v>45.64302329907608</v>
+        <v>62.66214731374675</v>
       </c>
       <c r="C34">
         <v>0</v>
@@ -1488,7 +1650,7 @@
         <v>35</v>
       </c>
       <c r="B35">
-        <v>45.20153736274825</v>
+        <v>62.03319588402979</v>
       </c>
       <c r="C35">
         <v>0</v>
@@ -1499,7 +1661,7 @@
         <v>36</v>
       </c>
       <c r="B36">
-        <v>45.04429364835939</v>
+        <v>61.74679716731478</v>
       </c>
       <c r="C36">
         <v>0</v>
@@ -1510,7 +1672,7 @@
         <v>37</v>
       </c>
       <c r="B37">
-        <v>43.64122763122499</v>
+        <v>60.02796431205314</v>
       </c>
       <c r="C37">
         <v>0</v>
@@ -1521,7 +1683,7 @@
         <v>38</v>
       </c>
       <c r="B38">
-        <v>43.14336643381296</v>
+        <v>58.18119415447991</v>
       </c>
       <c r="C38">
         <v>0</v>
@@ -1532,7 +1694,7 @@
         <v>39</v>
       </c>
       <c r="B39">
-        <v>39.30263411717098</v>
+        <v>55.90077401360216</v>
       </c>
       <c r="C39">
         <v>0</v>
@@ -1543,7 +1705,7 @@
         <v>40</v>
       </c>
       <c r="B40">
-        <v>38.61360511960554</v>
+        <v>54.76624126478501</v>
       </c>
       <c r="C40">
         <v>0</v>
@@ -1554,7 +1716,7 @@
         <v>41</v>
       </c>
       <c r="B41">
-        <v>36.86555544796457</v>
+        <v>50.39436958539741</v>
       </c>
       <c r="C41">
         <v>0</v>
@@ -1565,7 +1727,7 @@
         <v>42</v>
       </c>
       <c r="B42">
-        <v>36.48710045974624</v>
+        <v>50.0768598097157</v>
       </c>
       <c r="C42">
         <v>0</v>
@@ -1576,7 +1738,7 @@
         <v>43</v>
       </c>
       <c r="B43">
-        <v>34.78293039449112</v>
+        <v>49.64277589715969</v>
       </c>
       <c r="C43">
         <v>0</v>
@@ -1587,7 +1749,7 @@
         <v>44</v>
       </c>
       <c r="B44">
-        <v>33.62625671624255</v>
+        <v>47.92780315849683</v>
       </c>
       <c r="C44">
         <v>0</v>
@@ -1598,10 +1760,10 @@
         <v>45</v>
       </c>
       <c r="B45">
-        <v>31.9192789478568</v>
+        <v>46.00195746290634</v>
       </c>
       <c r="C45">
-        <v>1e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1609,10 +1771,10 @@
         <v>46</v>
       </c>
       <c r="B46">
-        <v>31.15307508637348</v>
+        <v>43.39315653800044</v>
       </c>
       <c r="C46">
-        <v>1e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1620,10 +1782,10 @@
         <v>47</v>
       </c>
       <c r="B47">
-        <v>30.9399147315488</v>
+        <v>43.21482681108897</v>
       </c>
       <c r="C47">
-        <v>1e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1631,10 +1793,10 @@
         <v>48</v>
       </c>
       <c r="B48">
-        <v>30.93991473150892</v>
+        <v>42.48428313283721</v>
       </c>
       <c r="C48">
-        <v>1e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1642,10 +1804,10 @@
         <v>49</v>
       </c>
       <c r="B49">
-        <v>29.55367233816249</v>
+        <v>41.92756780391029</v>
       </c>
       <c r="C49">
-        <v>1e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1653,10 +1815,10 @@
         <v>50</v>
       </c>
       <c r="B50">
-        <v>28.93791293238712</v>
+        <v>40.59259892916951</v>
       </c>
       <c r="C50">
-        <v>1e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1664,10 +1826,10 @@
         <v>51</v>
       </c>
       <c r="B51">
-        <v>28.79700948789421</v>
+        <v>40.35930233852353</v>
       </c>
       <c r="C51">
-        <v>1e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1675,10 +1837,10 @@
         <v>52</v>
       </c>
       <c r="B52">
-        <v>28.51923977814165</v>
+        <v>37.69565012975791</v>
       </c>
       <c r="C52">
-        <v>1e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -1686,10 +1848,10 @@
         <v>53</v>
       </c>
       <c r="B53">
-        <v>28.38787660028483</v>
+        <v>37.46723315331944</v>
       </c>
       <c r="C53">
-        <v>1e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -1697,10 +1859,10 @@
         <v>54</v>
       </c>
       <c r="B54">
-        <v>27.97253175712887</v>
+        <v>37.09256815463634</v>
       </c>
       <c r="C54">
-        <v>2e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1708,10 +1870,10 @@
         <v>55</v>
       </c>
       <c r="B55">
-        <v>27.22674166225084</v>
+        <v>35.63257334700726</v>
       </c>
       <c r="C55">
-        <v>2e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1719,10 +1881,10 @@
         <v>56</v>
       </c>
       <c r="B56">
-        <v>26.71032186610454</v>
+        <v>35.43114324166002</v>
       </c>
       <c r="C56">
-        <v>2e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1730,10 +1892,10 @@
         <v>57</v>
       </c>
       <c r="B57">
-        <v>26.64983700080924</v>
+        <v>34.92218211007062</v>
       </c>
       <c r="C57">
-        <v>2e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1741,10 +1903,10 @@
         <v>58</v>
       </c>
       <c r="B58">
-        <v>26.01898919901209</v>
+        <v>34.63389934240696</v>
       </c>
       <c r="C58">
-        <v>3e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1752,10 +1914,10 @@
         <v>59</v>
       </c>
       <c r="B59">
-        <v>24.73580979235539</v>
+        <v>33.0510040108496</v>
       </c>
       <c r="C59">
-        <v>4e-05</v>
+        <v>1e-05</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1763,10 +1925,10 @@
         <v>60</v>
       </c>
       <c r="B60">
-        <v>24.45694248405951</v>
+        <v>32.82092052994973</v>
       </c>
       <c r="C60">
-        <v>4e-05</v>
+        <v>1e-05</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1774,10 +1936,10 @@
         <v>61</v>
       </c>
       <c r="B61">
-        <v>24.10968758880989</v>
+        <v>30.89075340714256</v>
       </c>
       <c r="C61">
-        <v>4e-05</v>
+        <v>1e-05</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1785,10 +1947,10 @@
         <v>62</v>
       </c>
       <c r="B62">
-        <v>23.58770332460239</v>
+        <v>30.86869997019748</v>
       </c>
       <c r="C62">
-        <v>5e-05</v>
+        <v>1e-05</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1796,10 +1958,10 @@
         <v>63</v>
       </c>
       <c r="B63">
-        <v>23.14904801676056</v>
+        <v>30.84814667133415</v>
       </c>
       <c r="C63">
-        <v>6e-05</v>
+        <v>1e-05</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1807,10 +1969,10 @@
         <v>64</v>
       </c>
       <c r="B64">
-        <v>22.82844754735557</v>
+        <v>30.59197891278358</v>
       </c>
       <c r="C64">
-        <v>6e-05</v>
+        <v>1e-05</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1818,10 +1980,10 @@
         <v>65</v>
       </c>
       <c r="B65">
-        <v>22.60744661288868</v>
+        <v>28.57430739631108</v>
       </c>
       <c r="C65">
-        <v>6e-05</v>
+        <v>2e-05</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1829,10 +1991,10 @@
         <v>66</v>
       </c>
       <c r="B66">
-        <v>21.91762170787241</v>
+        <v>28.57430739605105</v>
       </c>
       <c r="C66">
-        <v>8.000000000000001e-05</v>
+        <v>2e-05</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1840,10 +2002,10 @@
         <v>67</v>
       </c>
       <c r="B67">
-        <v>21.52600973140195</v>
+        <v>27.69834193514372</v>
       </c>
       <c r="C67">
-        <v>9.000000000000001e-05</v>
+        <v>2e-05</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1851,10 +2013,10 @@
         <v>68</v>
       </c>
       <c r="B68">
-        <v>21.48452158136542</v>
+        <v>26.97051316033705</v>
       </c>
       <c r="C68">
-        <v>9.000000000000001e-05</v>
+        <v>3e-05</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1862,10 +2024,10 @@
         <v>69</v>
       </c>
       <c r="B69">
-        <v>21.24182408164607</v>
+        <v>26.94974708538497</v>
       </c>
       <c r="C69">
-        <v>9.000000000000001e-05</v>
+        <v>3e-05</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1873,10 +2035,10 @@
         <v>70</v>
       </c>
       <c r="B70">
-        <v>21.03152152930839</v>
+        <v>26.94696760269861</v>
       </c>
       <c r="C70">
-        <v>0.0001</v>
+        <v>3e-05</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1884,10 +2046,10 @@
         <v>71</v>
       </c>
       <c r="B71">
-        <v>20.99794748930562</v>
+        <v>26.57507678612766</v>
       </c>
       <c r="C71">
-        <v>0.0001</v>
+        <v>3e-05</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1895,10 +2057,10 @@
         <v>72</v>
       </c>
       <c r="B72">
-        <v>20.98657933850825</v>
+        <v>26.37861330160845</v>
       </c>
       <c r="C72">
-        <v>0.0001</v>
+        <v>3e-05</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1906,10 +2068,10 @@
         <v>73</v>
       </c>
       <c r="B73">
-        <v>20.89990603461606</v>
+        <v>26.13644250057234</v>
       </c>
       <c r="C73">
-        <v>0.0001</v>
+        <v>3e-05</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1917,10 +2079,10 @@
         <v>74</v>
       </c>
       <c r="B74">
-        <v>20.73093920475149</v>
+        <v>25.9620827604776</v>
       </c>
       <c r="C74">
-        <v>0.00011</v>
+        <v>3e-05</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -1928,10 +2090,10 @@
         <v>75</v>
       </c>
       <c r="B75">
-        <v>20.72339334316147</v>
+        <v>25.8981150180505</v>
       </c>
       <c r="C75">
-        <v>0.00011</v>
+        <v>3e-05</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -1939,10 +2101,10 @@
         <v>76</v>
       </c>
       <c r="B76">
-        <v>20.72203828253622</v>
+        <v>25.78445360623071</v>
       </c>
       <c r="C76">
-        <v>0.00011</v>
+        <v>3e-05</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -1950,10 +2112,10 @@
         <v>77</v>
       </c>
       <c r="B77">
-        <v>20.53863463820067</v>
+        <v>25.55484942009305</v>
       </c>
       <c r="C77">
-        <v>0.00012</v>
+        <v>4e-05</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -1961,10 +2123,10 @@
         <v>78</v>
       </c>
       <c r="B78">
-        <v>20.04978509201057</v>
+        <v>25.50719046171244</v>
       </c>
       <c r="C78">
-        <v>0.00013</v>
+        <v>4e-05</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -1972,10 +2134,10 @@
         <v>79</v>
       </c>
       <c r="B79">
-        <v>20.04481212755521</v>
+        <v>25.46369017331002</v>
       </c>
       <c r="C79">
-        <v>0.00013</v>
+        <v>4e-05</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -1983,10 +2145,10 @@
         <v>80</v>
       </c>
       <c r="B80">
-        <v>20.02675314455898</v>
+        <v>25.45771677952447</v>
       </c>
       <c r="C80">
-        <v>0.00013</v>
+        <v>4e-05</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -1994,10 +2156,10 @@
         <v>81</v>
       </c>
       <c r="B81">
-        <v>19.86770609649119</v>
+        <v>24.99621066210034</v>
       </c>
       <c r="C81">
-        <v>0.00014</v>
+        <v>4e-05</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -2005,10 +2167,10 @@
         <v>82</v>
       </c>
       <c r="B82">
-        <v>19.81706597614084</v>
+        <v>24.61907485902487</v>
       </c>
       <c r="C82">
-        <v>0.00014</v>
+        <v>5e-05</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -2016,10 +2178,10 @@
         <v>83</v>
       </c>
       <c r="B83">
-        <v>19.79869141563062</v>
+        <v>24.37221019854019</v>
       </c>
       <c r="C83">
-        <v>0.00014</v>
+        <v>5e-05</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -2027,10 +2189,10 @@
         <v>84</v>
       </c>
       <c r="B84">
-        <v>19.78202780223579</v>
+        <v>24.35008756478004</v>
       </c>
       <c r="C84">
-        <v>0.00014</v>
+        <v>5e-05</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -2038,10 +2200,10 @@
         <v>85</v>
       </c>
       <c r="B85">
-        <v>19.6450589276448</v>
+        <v>23.19631539834304</v>
       </c>
       <c r="C85">
-        <v>0.00015</v>
+        <v>6.999999999999999e-05</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -2049,10 +2211,10 @@
         <v>86</v>
       </c>
       <c r="B86">
-        <v>19.6450589276448</v>
+        <v>23.1896693799207</v>
       </c>
       <c r="C86">
-        <v>0.00015</v>
+        <v>6.999999999999999e-05</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -2060,10 +2222,10 @@
         <v>87</v>
       </c>
       <c r="B87">
-        <v>19.08646879222913</v>
+        <v>23.17187863363296</v>
       </c>
       <c r="C87">
-        <v>0.00018</v>
+        <v>6.999999999999999e-05</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -2071,10 +2233,10 @@
         <v>88</v>
       </c>
       <c r="B88">
-        <v>19.02490897823406</v>
+        <v>23.04779175100921</v>
       </c>
       <c r="C88">
-        <v>0.00018</v>
+        <v>6.999999999999999e-05</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -2082,10 +2244,10 @@
         <v>89</v>
       </c>
       <c r="B89">
-        <v>18.93951081786824</v>
+        <v>22.40677430850476</v>
       </c>
       <c r="C89">
-        <v>0.00019</v>
+        <v>8.000000000000001e-05</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -2093,10 +2255,10 @@
         <v>90</v>
       </c>
       <c r="B90">
-        <v>18.77091985840608</v>
+        <v>22.29679387935579</v>
       </c>
       <c r="C90">
-        <v>0.0002</v>
+        <v>8.000000000000001e-05</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -2104,10 +2266,10 @@
         <v>91</v>
       </c>
       <c r="B91">
-        <v>18.75831681058044</v>
+        <v>22.09578254188134</v>
       </c>
       <c r="C91">
-        <v>0.0002</v>
+        <v>9.000000000000001e-05</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -2115,10 +2277,10 @@
         <v>92</v>
       </c>
       <c r="B92">
-        <v>18.7369930947834</v>
+        <v>21.96832329680415</v>
       </c>
       <c r="C92">
-        <v>0.0002</v>
+        <v>9.000000000000001e-05</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -2126,10 +2288,10 @@
         <v>93</v>
       </c>
       <c r="B93">
-        <v>18.68667052463275</v>
+        <v>21.57847432769185</v>
       </c>
       <c r="C93">
-        <v>0.0002</v>
+        <v>0.0001</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -2137,10 +2299,10 @@
         <v>94</v>
       </c>
       <c r="B94">
-        <v>18.68667052463275</v>
+        <v>20.9813824032856</v>
       </c>
       <c r="C94">
-        <v>0.0002</v>
+        <v>0.00012</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -2148,10 +2310,10 @@
         <v>95</v>
       </c>
       <c r="B95">
-        <v>18.64143504118767</v>
+        <v>20.96054477611741</v>
       </c>
       <c r="C95">
-        <v>0.0002</v>
+        <v>0.00012</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -2159,10 +2321,10 @@
         <v>96</v>
       </c>
       <c r="B96">
-        <v>18.63649796299042</v>
+        <v>20.84386061308816</v>
       </c>
       <c r="C96">
-        <v>0.0002</v>
+        <v>0.00013</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -2170,10 +2332,10 @@
         <v>97</v>
       </c>
       <c r="B97">
-        <v>18.43808108231206</v>
+        <v>20.72482891764947</v>
       </c>
       <c r="C97">
-        <v>0.00022</v>
+        <v>0.00013</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -2181,10 +2343,10 @@
         <v>98</v>
       </c>
       <c r="B98">
-        <v>18.41470877243564</v>
+        <v>20.2978833919942</v>
       </c>
       <c r="C98">
-        <v>0.00022</v>
+        <v>0.00015</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -2192,10 +2354,10 @@
         <v>99</v>
       </c>
       <c r="B99">
-        <v>18.31560409127972</v>
+        <v>20.25778247660936</v>
       </c>
       <c r="C99">
-        <v>0.00022</v>
+        <v>0.00015</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -2203,10 +2365,10 @@
         <v>100</v>
       </c>
       <c r="B100">
-        <v>18.23473378768231</v>
+        <v>20.10449410179449</v>
       </c>
       <c r="C100">
-        <v>0.00023</v>
+        <v>0.00015</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -2214,10 +2376,10 @@
         <v>101</v>
       </c>
       <c r="B101">
-        <v>18.21216748942694</v>
+        <v>20.07487979558493</v>
       </c>
       <c r="C101">
-        <v>0.00023</v>
+        <v>0.00016</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -2225,10 +2387,10 @@
         <v>102</v>
       </c>
       <c r="B102">
-        <v>18.20431679848749</v>
+        <v>20.07022866892039</v>
       </c>
       <c r="C102">
-        <v>0.00023</v>
+        <v>0.00016</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -2236,10 +2398,10 @@
         <v>103</v>
       </c>
       <c r="B103">
-        <v>18.08731123755094</v>
+        <v>20.03436138538971</v>
       </c>
       <c r="C103">
-        <v>0.00024</v>
+        <v>0.00016</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -2247,10 +2409,10 @@
         <v>104</v>
       </c>
       <c r="B104">
-        <v>18.05727320537605</v>
+        <v>19.83291346748186</v>
       </c>
       <c r="C104">
-        <v>0.00024</v>
+        <v>0.00017</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -2258,10 +2420,10 @@
         <v>105</v>
       </c>
       <c r="B105">
-        <v>17.98007672877078</v>
+        <v>19.66463720657188</v>
       </c>
       <c r="C105">
-        <v>0.00025</v>
+        <v>0.00017</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -2269,10 +2431,10 @@
         <v>106</v>
       </c>
       <c r="B106">
-        <v>17.95330520134702</v>
+        <v>19.64852777100852</v>
       </c>
       <c r="C106">
-        <v>0.00025</v>
+        <v>0.00018</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -2280,10 +2442,10 @@
         <v>107</v>
       </c>
       <c r="B107">
-        <v>17.55962237516434</v>
+        <v>19.62050983317364</v>
       </c>
       <c r="C107">
-        <v>0.00028</v>
+        <v>0.00018</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -2291,10 +2453,10 @@
         <v>108</v>
       </c>
       <c r="B108">
-        <v>17.54265866394254</v>
+        <v>19.56361806590743</v>
       </c>
       <c r="C108">
-        <v>0.00029</v>
+        <v>0.00018</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -2302,10 +2464,10 @@
         <v>109</v>
       </c>
       <c r="B109">
-        <v>17.53176602526476</v>
+        <v>19.54700927048057</v>
       </c>
       <c r="C109">
-        <v>0.00029</v>
+        <v>0.00018</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -2313,10 +2475,10 @@
         <v>110</v>
       </c>
       <c r="B110">
-        <v>17.52425998584156</v>
+        <v>19.3964949705973</v>
       </c>
       <c r="C110">
-        <v>0.00029</v>
+        <v>0.00019</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -2324,10 +2486,10 @@
         <v>111</v>
       </c>
       <c r="B111">
-        <v>17.51114788857765</v>
+        <v>19.3964949705973</v>
       </c>
       <c r="C111">
-        <v>0.00029</v>
+        <v>0.00019</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -2335,10 +2497,10 @@
         <v>112</v>
       </c>
       <c r="B112">
-        <v>17.50056060899047</v>
+        <v>19.27213341352732</v>
       </c>
       <c r="C112">
-        <v>0.00029</v>
+        <v>0.0002</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -2346,10 +2508,10 @@
         <v>113</v>
       </c>
       <c r="B113">
-        <v>17.46820899485195</v>
+        <v>19.20684736507658</v>
       </c>
       <c r="C113">
-        <v>0.00029</v>
+        <v>0.0002</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -2357,10 +2519,10 @@
         <v>114</v>
       </c>
       <c r="B114">
-        <v>17.33814737642807</v>
+        <v>19.08990038055506</v>
       </c>
       <c r="C114">
-        <v>0.0003</v>
+        <v>0.00021</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -2368,10 +2530,10 @@
         <v>115</v>
       </c>
       <c r="B115">
-        <v>17.308205972629</v>
+        <v>18.99051135889448</v>
       </c>
       <c r="C115">
-        <v>0.00031</v>
+        <v>0.00021</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -2379,10 +2541,10 @@
         <v>116</v>
       </c>
       <c r="B116">
-        <v>17.29105012939658</v>
+        <v>18.94385859658053</v>
       </c>
       <c r="C116">
-        <v>0.00031</v>
+        <v>0.00022</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -2390,10 +2552,10 @@
         <v>117</v>
       </c>
       <c r="B117">
-        <v>17.2736850328436</v>
+        <v>18.83493669198932</v>
       </c>
       <c r="C117">
-        <v>0.00031</v>
+        <v>0.00022</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -2401,10 +2563,10 @@
         <v>118</v>
       </c>
       <c r="B118">
-        <v>17.12762700591415</v>
+        <v>18.65139418415856</v>
       </c>
       <c r="C118">
-        <v>0.00033</v>
+        <v>0.00023</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -2412,10 +2574,10 @@
         <v>119</v>
       </c>
       <c r="B119">
-        <v>16.91764405131098</v>
+        <v>18.08626180432844</v>
       </c>
       <c r="C119">
-        <v>0.00035</v>
+        <v>0.00028</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -2423,10 +2585,10 @@
         <v>120</v>
       </c>
       <c r="B120">
-        <v>16.88682660019355</v>
+        <v>18.06342893974134</v>
       </c>
       <c r="C120">
-        <v>0.00035</v>
+        <v>0.00028</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -2434,10 +2596,10 @@
         <v>121</v>
       </c>
       <c r="B121">
-        <v>16.85592928363802</v>
+        <v>18.01748385343959</v>
       </c>
       <c r="C121">
-        <v>0.00035</v>
+        <v>0.00028</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -2445,10 +2607,10 @@
         <v>122</v>
       </c>
       <c r="B122">
-        <v>16.73389809871647</v>
+        <v>18.00720305711193</v>
       </c>
       <c r="C122">
-        <v>0.00037</v>
+        <v>0.00028</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -2456,10 +2618,10 @@
         <v>123</v>
       </c>
       <c r="B123">
-        <v>16.72058341188227</v>
+        <v>17.99620677268067</v>
       </c>
       <c r="C123">
-        <v>0.00037</v>
+        <v>0.00029</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -2467,10 +2629,10 @@
         <v>124</v>
       </c>
       <c r="B124">
-        <v>16.56275759816241</v>
+        <v>17.97746460370549</v>
       </c>
       <c r="C124">
-        <v>0.00039</v>
+        <v>0.00029</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -2478,10 +2640,10 @@
         <v>125</v>
       </c>
       <c r="B125">
-        <v>16.5620529179876</v>
+        <v>17.94071383885135</v>
       </c>
       <c r="C125">
-        <v>0.00039</v>
+        <v>0.00029</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -2489,10 +2651,10 @@
         <v>126</v>
       </c>
       <c r="B126">
-        <v>16.51744092369085</v>
+        <v>17.8238798513863</v>
       </c>
       <c r="C126">
-        <v>0.0004</v>
+        <v>0.0003</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -2500,10 +2662,10 @@
         <v>127</v>
       </c>
       <c r="B127">
-        <v>16.51139501758824</v>
+        <v>17.75386987876854</v>
       </c>
       <c r="C127">
-        <v>0.0004</v>
+        <v>0.00031</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -2511,10 +2673,10 @@
         <v>128</v>
       </c>
       <c r="B128">
-        <v>16.5010110551625</v>
+        <v>17.62002409525036</v>
       </c>
       <c r="C128">
-        <v>0.0004</v>
+        <v>0.00032</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -2522,10 +2684,10 @@
         <v>129</v>
       </c>
       <c r="B129">
-        <v>16.46916444106122</v>
+        <v>17.53303044193561</v>
       </c>
       <c r="C129">
-        <v>0.0004</v>
+        <v>0.00033</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -2533,10 +2695,10 @@
         <v>130</v>
       </c>
       <c r="B130">
-        <v>16.38718750846913</v>
+        <v>17.53303044193561</v>
       </c>
       <c r="C130">
-        <v>0.00041</v>
+        <v>0.00033</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -2544,10 +2706,10 @@
         <v>131</v>
       </c>
       <c r="B131">
-        <v>16.30017370226718</v>
+        <v>17.41729887378454</v>
       </c>
       <c r="C131">
-        <v>0.00042</v>
+        <v>0.00034</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -2555,10 +2717,10 @@
         <v>132</v>
       </c>
       <c r="B132">
-        <v>16.25986377599235</v>
+        <v>17.33765276433354</v>
       </c>
       <c r="C132">
-        <v>0.00043</v>
+        <v>0.00035</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -2566,10 +2728,10 @@
         <v>133</v>
       </c>
       <c r="B133">
-        <v>16.23613537836274</v>
+        <v>17.32862087816766</v>
       </c>
       <c r="C133">
-        <v>0.00043</v>
+        <v>0.00035</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -2577,10 +2739,10 @@
         <v>134</v>
       </c>
       <c r="B134">
-        <v>16.13133199563078</v>
+        <v>17.29668855291948</v>
       </c>
       <c r="C134">
-        <v>0.00045</v>
+        <v>0.00035</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -2588,10 +2750,10 @@
         <v>135</v>
       </c>
       <c r="B135">
-        <v>15.73315827524805</v>
+        <v>17.28299779149682</v>
       </c>
       <c r="C135">
-        <v>0.00051</v>
+        <v>0.00035</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -2599,10 +2761,10 @@
         <v>136</v>
       </c>
       <c r="B136">
-        <v>15.6457370304679</v>
+        <v>17.23578738571862</v>
       </c>
       <c r="C136">
-        <v>0.00053</v>
+        <v>0.00036</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -2610,10 +2772,10 @@
         <v>137</v>
       </c>
       <c r="B137">
-        <v>15.63763337131699</v>
+        <v>17.18995608585424</v>
       </c>
       <c r="C137">
-        <v>0.00053</v>
+        <v>0.00036</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -2621,10 +2783,10 @@
         <v>138</v>
       </c>
       <c r="B138">
-        <v>15.63763337100606</v>
+        <v>17.18171404662801</v>
       </c>
       <c r="C138">
-        <v>0.00053</v>
+        <v>0.00036</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -2632,10 +2794,10 @@
         <v>139</v>
       </c>
       <c r="B139">
-        <v>15.50059822849092</v>
+        <v>17.16013195599345</v>
       </c>
       <c r="C139">
-        <v>0.00055</v>
+        <v>0.00037</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -2643,10 +2805,10 @@
         <v>140</v>
       </c>
       <c r="B140">
-        <v>15.14916405252092</v>
+        <v>17.14525849897759</v>
       </c>
       <c r="C140">
-        <v>0.00062</v>
+        <v>0.00037</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -2654,10 +2816,10 @@
         <v>141</v>
       </c>
       <c r="B141">
-        <v>15.14538485062031</v>
+        <v>17.11970446977856</v>
       </c>
       <c r="C141">
-        <v>0.00062</v>
+        <v>0.00037</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -2665,10 +2827,10 @@
         <v>142</v>
       </c>
       <c r="B142">
-        <v>15.00585084565466</v>
+        <v>17.09822322878777</v>
       </c>
       <c r="C142">
-        <v>0.00065</v>
+        <v>0.00037</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -2676,10 +2838,10 @@
         <v>143</v>
       </c>
       <c r="B143">
-        <v>15.00209987670318</v>
+        <v>17.05502915406317</v>
       </c>
       <c r="C143">
-        <v>0.00065</v>
+        <v>0.00038</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -2687,10 +2849,10 @@
         <v>144</v>
       </c>
       <c r="B144">
-        <v>14.97287432303735</v>
+        <v>17.04769998096505</v>
       </c>
       <c r="C144">
-        <v>0.00066</v>
+        <v>0.00038</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -2698,10 +2860,10 @@
         <v>145</v>
       </c>
       <c r="B145">
-        <v>14.89346070084702</v>
+        <v>17.03034991206011</v>
       </c>
       <c r="C145">
-        <v>0.00067</v>
+        <v>0.00038</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -2709,10 +2871,10 @@
         <v>146</v>
       </c>
       <c r="B146">
-        <v>14.80838415306016</v>
+        <v>16.99170778755733</v>
       </c>
       <c r="C146">
-        <v>0.00069</v>
+        <v>0.00039</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -2720,10 +2882,10 @@
         <v>147</v>
       </c>
       <c r="B147">
-        <v>14.75804906559443</v>
+        <v>16.98952500710764</v>
       </c>
       <c r="C147">
-        <v>0.00071</v>
+        <v>0.00039</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -2731,10 +2893,10 @@
         <v>148</v>
       </c>
       <c r="B148">
-        <v>14.6714067931534</v>
+        <v>16.98842299660981</v>
       </c>
       <c r="C148">
-        <v>0.00073</v>
+        <v>0.00039</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -2742,10 +2904,10 @@
         <v>149</v>
       </c>
       <c r="B149">
-        <v>14.63649557790591</v>
+        <v>16.98207592227798</v>
       </c>
       <c r="C149">
-        <v>0.00074</v>
+        <v>0.00039</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -2753,10 +2915,10 @@
         <v>150</v>
       </c>
       <c r="B150">
-        <v>14.6278033545336</v>
+        <v>16.9816195189399</v>
       </c>
       <c r="C150">
-        <v>0.00074</v>
+        <v>0.00039</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -2764,10 +2926,10 @@
         <v>151</v>
       </c>
       <c r="B151">
-        <v>14.52560785610709</v>
+        <v>16.972189242777</v>
       </c>
       <c r="C151">
-        <v>0.00076</v>
+        <v>0.00039</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -2775,10 +2937,10 @@
         <v>152</v>
       </c>
       <c r="B152">
-        <v>14.4308497823239</v>
+        <v>16.97008986838808</v>
       </c>
       <c r="C152">
-        <v>0.00079</v>
+        <v>0.00039</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -2786,10 +2948,10 @@
         <v>153</v>
       </c>
       <c r="B153">
-        <v>14.38014427402895</v>
+        <v>16.90638545578075</v>
       </c>
       <c r="C153">
-        <v>0.0008</v>
+        <v>0.0004</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -2797,10 +2959,10 @@
         <v>154</v>
       </c>
       <c r="B154">
-        <v>14.29057761701718</v>
+        <v>16.90057361106857</v>
       </c>
       <c r="C154">
-        <v>0.00083</v>
+        <v>0.0004</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -2808,10 +2970,10 @@
         <v>155</v>
       </c>
       <c r="B155">
-        <v>14.29057761701718</v>
+        <v>16.89420030808896</v>
       </c>
       <c r="C155">
-        <v>0.00083</v>
+        <v>0.0004</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -2819,10 +2981,10 @@
         <v>156</v>
       </c>
       <c r="B156">
-        <v>14.29057761701714</v>
+        <v>16.88524166034168</v>
       </c>
       <c r="C156">
-        <v>0.00083</v>
+        <v>0.0004</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -2830,10 +2992,10 @@
         <v>157</v>
       </c>
       <c r="B157">
-        <v>14.29057761701714</v>
+        <v>16.88069165561802</v>
       </c>
       <c r="C157">
-        <v>0.00083</v>
+        <v>0.0004</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -2841,10 +3003,10 @@
         <v>158</v>
       </c>
       <c r="B158">
-        <v>14.19832400130861</v>
+        <v>16.87961449312828</v>
       </c>
       <c r="C158">
-        <v>0.00085</v>
+        <v>0.0004</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -2852,10 +3014,10 @@
         <v>159</v>
       </c>
       <c r="B159">
-        <v>14.19562115202641</v>
+        <v>16.84825649732361</v>
       </c>
       <c r="C159">
-        <v>0.00085</v>
+        <v>0.0004</v>
       </c>
     </row>
     <row r="160" spans="1:3">
@@ -2863,10 +3025,10 @@
         <v>160</v>
       </c>
       <c r="B160">
-        <v>14.16542390577815</v>
+        <v>16.82692760684731</v>
       </c>
       <c r="C160">
-        <v>0.00086</v>
+        <v>0.00041</v>
       </c>
     </row>
     <row r="161" spans="1:3">
@@ -2874,10 +3036,10 @@
         <v>161</v>
       </c>
       <c r="B161">
-        <v>14.11526853108014</v>
+        <v>16.82003605074652</v>
       </c>
       <c r="C161">
-        <v>0.00088</v>
+        <v>0.00041</v>
       </c>
     </row>
     <row r="162" spans="1:3">
@@ -2885,10 +3047,10 @@
         <v>162</v>
       </c>
       <c r="B162">
-        <v>13.93933165748717</v>
+        <v>16.7830689786941</v>
       </c>
       <c r="C162">
-        <v>0.0009300000000000001</v>
+        <v>0.00041</v>
       </c>
     </row>
     <row r="163" spans="1:3">
@@ -2896,10 +3058,10 @@
         <v>163</v>
       </c>
       <c r="B163">
-        <v>13.90467039451547</v>
+        <v>16.73079985501398</v>
       </c>
       <c r="C163">
-        <v>0.00094</v>
+        <v>0.00042</v>
       </c>
     </row>
     <row r="164" spans="1:3">
@@ -2907,10 +3069,10 @@
         <v>164</v>
       </c>
       <c r="B164">
-        <v>13.89580418906744</v>
+        <v>16.64514236417304</v>
       </c>
       <c r="C164">
-        <v>0.00095</v>
+        <v>0.00043</v>
       </c>
     </row>
     <row r="165" spans="1:3">
@@ -2918,10 +3080,10 @@
         <v>165</v>
       </c>
       <c r="B165">
-        <v>13.87399076980285</v>
+        <v>16.64361487317966</v>
       </c>
       <c r="C165">
-        <v>0.00095</v>
+        <v>0.00043</v>
       </c>
     </row>
     <row r="166" spans="1:3">
@@ -2929,10 +3091,10 @@
         <v>166</v>
       </c>
       <c r="B166">
-        <v>13.81718394712045</v>
+        <v>16.56854446118493</v>
       </c>
       <c r="C166">
-        <v>0.0009700000000000001</v>
+        <v>0.00044</v>
       </c>
     </row>
     <row r="167" spans="1:3">
@@ -2940,10 +3102,10 @@
         <v>167</v>
       </c>
       <c r="B167">
-        <v>13.60874440676191</v>
+        <v>16.56077791983723</v>
       </c>
       <c r="C167">
-        <v>0.00105</v>
+        <v>0.00044</v>
       </c>
     </row>
     <row r="168" spans="1:3">
@@ -2951,10 +3113,10 @@
         <v>168</v>
       </c>
       <c r="B168">
-        <v>13.60360186638975</v>
+        <v>16.54872706792602</v>
       </c>
       <c r="C168">
-        <v>0.00105</v>
+        <v>0.00044</v>
       </c>
     </row>
     <row r="169" spans="1:3">
@@ -2962,10 +3124,10 @@
         <v>169</v>
       </c>
       <c r="B169">
-        <v>13.49886912770488</v>
+        <v>16.32144792651869</v>
       </c>
       <c r="C169">
-        <v>0.00109</v>
+        <v>0.00048</v>
       </c>
     </row>
     <row r="170" spans="1:3">
@@ -2973,10 +3135,10 @@
         <v>170</v>
       </c>
       <c r="B170">
-        <v>13.49290917126489</v>
+        <v>16.29318289680467</v>
       </c>
       <c r="C170">
-        <v>0.00109</v>
+        <v>0.00048</v>
       </c>
     </row>
     <row r="171" spans="1:3">
@@ -2984,10 +3146,10 @@
         <v>171</v>
       </c>
       <c r="B171">
-        <v>13.36225192069425</v>
+        <v>16.28744977871411</v>
       </c>
       <c r="C171">
-        <v>0.00114</v>
+        <v>0.00048</v>
       </c>
     </row>
     <row r="172" spans="1:3">
@@ -2995,10 +3157,10 @@
         <v>172</v>
       </c>
       <c r="B172">
-        <v>13.26934324305097</v>
+        <v>16.10056086530541</v>
       </c>
       <c r="C172">
-        <v>0.00118</v>
+        <v>0.00051</v>
       </c>
     </row>
     <row r="173" spans="1:3">
@@ -3006,10 +3168,10 @@
         <v>173</v>
       </c>
       <c r="B173">
-        <v>13.2098256968635</v>
+        <v>16.06594941581691</v>
       </c>
       <c r="C173">
-        <v>0.0012</v>
+        <v>0.00052</v>
       </c>
     </row>
     <row r="174" spans="1:3">
@@ -3017,10 +3179,10 @@
         <v>174</v>
       </c>
       <c r="B174">
-        <v>13.08579725509642</v>
+        <v>15.97769207390839</v>
       </c>
       <c r="C174">
-        <v>0.00126</v>
+        <v>0.00053</v>
       </c>
     </row>
     <row r="175" spans="1:3">
@@ -3028,10 +3190,10 @@
         <v>175</v>
       </c>
       <c r="B175">
-        <v>13.07524724317058</v>
+        <v>15.90686682745185</v>
       </c>
       <c r="C175">
-        <v>0.00126</v>
+        <v>0.00054</v>
       </c>
     </row>
     <row r="176" spans="1:3">
@@ -3039,10 +3201,10 @@
         <v>176</v>
       </c>
       <c r="B176">
-        <v>13.04779648820996</v>
+        <v>15.89380003062843</v>
       </c>
       <c r="C176">
-        <v>0.00127</v>
+        <v>0.00054</v>
       </c>
     </row>
     <row r="177" spans="1:3">
@@ -3050,10 +3212,10 @@
         <v>177</v>
       </c>
       <c r="B177">
-        <v>13.04779648820996</v>
+        <v>15.88060503021211</v>
       </c>
       <c r="C177">
-        <v>0.00127</v>
+        <v>0.00055</v>
       </c>
     </row>
     <row r="178" spans="1:3">
@@ -3061,10 +3223,10 @@
         <v>178</v>
       </c>
       <c r="B178">
-        <v>13.03119532591508</v>
+        <v>15.66067766630875</v>
       </c>
       <c r="C178">
-        <v>0.00128</v>
+        <v>0.00059</v>
       </c>
     </row>
     <row r="179" spans="1:3">
@@ -3072,10 +3234,10 @@
         <v>179</v>
       </c>
       <c r="B179">
-        <v>12.95335849184378</v>
+        <v>15.66067766619267</v>
       </c>
       <c r="C179">
-        <v>0.00132</v>
+        <v>0.00059</v>
       </c>
     </row>
     <row r="180" spans="1:3">
@@ -3083,10 +3245,10 @@
         <v>180</v>
       </c>
       <c r="B180">
-        <v>12.82829856644201</v>
+        <v>15.64592338761706</v>
       </c>
       <c r="C180">
-        <v>0.00138</v>
+        <v>0.00059</v>
       </c>
     </row>
     <row r="181" spans="1:3">
@@ -3094,10 +3256,10 @@
         <v>181</v>
       </c>
       <c r="B181">
-        <v>12.81928518044713</v>
+        <v>15.59455069166321</v>
       </c>
       <c r="C181">
-        <v>0.00138</v>
+        <v>0.0005999999999999999</v>
       </c>
     </row>
     <row r="182" spans="1:3">
@@ -3105,10 +3267,10 @@
         <v>182</v>
       </c>
       <c r="B182">
-        <v>12.796079196877</v>
+        <v>15.57754608512398</v>
       </c>
       <c r="C182">
-        <v>0.00139</v>
+        <v>0.0005999999999999999</v>
       </c>
     </row>
     <row r="183" spans="1:3">
@@ -3116,10 +3278,10 @@
         <v>183</v>
       </c>
       <c r="B183">
-        <v>12.72348848521129</v>
+        <v>15.54761977789806</v>
       </c>
       <c r="C183">
-        <v>0.00143</v>
+        <v>0.00061</v>
       </c>
     </row>
     <row r="184" spans="1:3">
@@ -3127,10 +3289,10 @@
         <v>184</v>
       </c>
       <c r="B184">
-        <v>12.63967555480705</v>
+        <v>15.45152553865855</v>
       </c>
       <c r="C184">
-        <v>0.00147</v>
+        <v>0.00063</v>
       </c>
     </row>
     <row r="185" spans="1:3">
@@ -3138,10 +3300,10 @@
         <v>185</v>
       </c>
       <c r="B185">
-        <v>12.62599201092879</v>
+        <v>15.37466437088865</v>
       </c>
       <c r="C185">
-        <v>0.00148</v>
+        <v>0.0006400000000000001</v>
       </c>
     </row>
     <row r="186" spans="1:3">
@@ -3149,10 +3311,10 @@
         <v>186</v>
       </c>
       <c r="B186">
-        <v>12.61551257332665</v>
+        <v>15.25598077406142</v>
       </c>
       <c r="C186">
-        <v>0.00149</v>
+        <v>0.00067</v>
       </c>
     </row>
     <row r="187" spans="1:3">
@@ -3160,10 +3322,10 @@
         <v>187</v>
       </c>
       <c r="B187">
-        <v>12.60083180969075</v>
+        <v>15.25167454713297</v>
       </c>
       <c r="C187">
-        <v>0.00149</v>
+        <v>0.00067</v>
       </c>
     </row>
     <row r="188" spans="1:3">
@@ -3171,10 +3333,10 @@
         <v>188</v>
       </c>
       <c r="B188">
-        <v>12.55892119082298</v>
+        <v>14.98169613219223</v>
       </c>
       <c r="C188">
-        <v>0.00152</v>
+        <v>0.00073</v>
       </c>
     </row>
     <row r="189" spans="1:3">
@@ -3182,10 +3344,10 @@
         <v>189</v>
       </c>
       <c r="B189">
-        <v>12.41513798710884</v>
+        <v>14.91933495138309</v>
       </c>
       <c r="C189">
-        <v>0.0016</v>
+        <v>0.00075</v>
       </c>
     </row>
     <row r="190" spans="1:3">
@@ -3193,10 +3355,10 @@
         <v>190</v>
       </c>
       <c r="B190">
-        <v>12.27639622697471</v>
+        <v>14.87658197820748</v>
       </c>
       <c r="C190">
-        <v>0.00168</v>
+        <v>0.00076</v>
       </c>
     </row>
     <row r="191" spans="1:3">
@@ -3204,10 +3366,10 @@
         <v>191</v>
       </c>
       <c r="B191">
-        <v>12.16280881303242</v>
+        <v>14.7207344736872</v>
       </c>
       <c r="C191">
-        <v>0.00175</v>
+        <v>0.0008</v>
       </c>
     </row>
     <row r="192" spans="1:3">
@@ -3215,10 +3377,10 @@
         <v>192</v>
       </c>
       <c r="B192">
-        <v>12.1609119564858</v>
+        <v>14.67154889529478</v>
       </c>
       <c r="C192">
-        <v>0.00175</v>
+        <v>0.00081</v>
       </c>
     </row>
     <row r="193" spans="1:3">
@@ -3226,10 +3388,10 @@
         <v>193</v>
       </c>
       <c r="B193">
-        <v>12.14067725265093</v>
+        <v>14.26404724438454</v>
       </c>
       <c r="C193">
-        <v>0.00176</v>
+        <v>0.00092</v>
       </c>
     </row>
     <row r="194" spans="1:3">
@@ -3237,10 +3399,10 @@
         <v>194</v>
       </c>
       <c r="B194">
-        <v>12.09175782939019</v>
+        <v>14.23885076514912</v>
       </c>
       <c r="C194">
-        <v>0.0018</v>
+        <v>0.0009300000000000001</v>
       </c>
     </row>
     <row r="195" spans="1:3">
@@ -3248,10 +3410,10 @@
         <v>195</v>
       </c>
       <c r="B195">
-        <v>12.05810977590174</v>
+        <v>14.1895126952045</v>
       </c>
       <c r="C195">
-        <v>0.00182</v>
+        <v>0.00095</v>
       </c>
     </row>
     <row r="196" spans="1:3">
@@ -3259,10 +3421,10 @@
         <v>196</v>
       </c>
       <c r="B196">
-        <v>12.04914932429583</v>
+        <v>14.10747759226455</v>
       </c>
       <c r="C196">
-        <v>0.00182</v>
+        <v>0.0009700000000000001</v>
       </c>
     </row>
     <row r="197" spans="1:3">
@@ -3270,10 +3432,10 @@
         <v>197</v>
       </c>
       <c r="B197">
-        <v>12.02707966843437</v>
+        <v>13.93113457924844</v>
       </c>
       <c r="C197">
-        <v>0.00184</v>
+        <v>0.00103</v>
       </c>
     </row>
     <row r="198" spans="1:3">
@@ -3281,10 +3443,10 @@
         <v>198</v>
       </c>
       <c r="B198">
-        <v>12.02707966843437</v>
+        <v>13.93077631140077</v>
       </c>
       <c r="C198">
-        <v>0.00184</v>
+        <v>0.00103</v>
       </c>
     </row>
     <row r="199" spans="1:3">
@@ -3292,10 +3454,10 @@
         <v>199</v>
       </c>
       <c r="B199">
-        <v>12.02707966843435</v>
+        <v>13.92958763238693</v>
       </c>
       <c r="C199">
-        <v>0.00184</v>
+        <v>0.00103</v>
       </c>
     </row>
     <row r="200" spans="1:3">
@@ -3303,10 +3465,10 @@
         <v>200</v>
       </c>
       <c r="B200">
-        <v>12.02707966843435</v>
+        <v>13.77604782630524</v>
       </c>
       <c r="C200">
-        <v>0.00184</v>
+        <v>0.00109</v>
       </c>
     </row>
     <row r="201" spans="1:3">
@@ -3314,10 +3476,10 @@
         <v>201</v>
       </c>
       <c r="B201">
-        <v>12.02707966843435</v>
+        <v>13.76696605197051</v>
       </c>
       <c r="C201">
-        <v>0.00184</v>
+        <v>0.00109</v>
       </c>
     </row>
     <row r="202" spans="1:3">
@@ -3325,10 +3487,10 @@
         <v>202</v>
       </c>
       <c r="B202">
-        <v>12.02707966843435</v>
+        <v>13.75094793698319</v>
       </c>
       <c r="C202">
-        <v>0.00184</v>
+        <v>0.0011</v>
       </c>
     </row>
     <row r="203" spans="1:3">
@@ -3336,10 +3498,10 @@
         <v>203</v>
       </c>
       <c r="B203">
-        <v>12.02707966843433</v>
+        <v>13.74838084002994</v>
       </c>
       <c r="C203">
-        <v>0.00184</v>
+        <v>0.0011</v>
       </c>
     </row>
     <row r="204" spans="1:3">
@@ -3347,10 +3509,10 @@
         <v>204</v>
       </c>
       <c r="B204">
-        <v>11.71864882424106</v>
+        <v>13.72492265348746</v>
       </c>
       <c r="C204">
-        <v>0.00206</v>
+        <v>0.00111</v>
       </c>
     </row>
     <row r="205" spans="1:3">
@@ -3358,10 +3520,10 @@
         <v>205</v>
       </c>
       <c r="B205">
-        <v>11.64694852837208</v>
+        <v>13.67925402301712</v>
       </c>
       <c r="C205">
-        <v>0.00212</v>
+        <v>0.00112</v>
       </c>
     </row>
     <row r="206" spans="1:3">
@@ -3369,10 +3531,10 @@
         <v>206</v>
       </c>
       <c r="B206">
-        <v>11.61431414384147</v>
+        <v>13.60017033075412</v>
       </c>
       <c r="C206">
-        <v>0.00214</v>
+        <v>0.00115</v>
       </c>
     </row>
     <row r="207" spans="1:3">
@@ -3380,10 +3542,10 @@
         <v>207</v>
       </c>
       <c r="B207">
-        <v>11.53421590373337</v>
+        <v>13.46791630292421</v>
       </c>
       <c r="C207">
-        <v>0.00221</v>
+        <v>0.00121</v>
       </c>
     </row>
     <row r="208" spans="1:3">
@@ -3391,10 +3553,10 @@
         <v>208</v>
       </c>
       <c r="B208">
-        <v>11.44572651294314</v>
+        <v>13.37466946770268</v>
       </c>
       <c r="C208">
-        <v>0.00228</v>
+        <v>0.00125</v>
       </c>
     </row>
     <row r="209" spans="1:3">
@@ -3402,10 +3564,10 @@
         <v>209</v>
       </c>
       <c r="B209">
-        <v>11.36401334036221</v>
+        <v>13.35204711906397</v>
       </c>
       <c r="C209">
-        <v>0.00235</v>
+        <v>0.00126</v>
       </c>
     </row>
     <row r="210" spans="1:3">
@@ -3413,10 +3575,10 @@
         <v>210</v>
       </c>
       <c r="B210">
-        <v>11.36401334036221</v>
+        <v>13.2467996699182</v>
       </c>
       <c r="C210">
-        <v>0.00235</v>
+        <v>0.0013</v>
       </c>
     </row>
     <row r="211" spans="1:3">
@@ -3424,10 +3586,10 @@
         <v>211</v>
       </c>
       <c r="B211">
-        <v>11.30871333742145</v>
+        <v>13.21984674571396</v>
       </c>
       <c r="C211">
-        <v>0.0024</v>
+        <v>0.00131</v>
       </c>
     </row>
     <row r="212" spans="1:3">
@@ -3435,10 +3597,10 @@
         <v>212</v>
       </c>
       <c r="B212">
-        <v>10.55323123867846</v>
+        <v>13.20926341649029</v>
       </c>
       <c r="C212">
-        <v>0.00319</v>
+        <v>0.00132</v>
       </c>
     </row>
     <row r="213" spans="1:3">
@@ -3446,10 +3608,10 @@
         <v>213</v>
       </c>
       <c r="B213">
-        <v>9.920891948653029</v>
+        <v>13.20824026032367</v>
       </c>
       <c r="C213">
-        <v>0.00408</v>
+        <v>0.00132</v>
       </c>
     </row>
     <row r="214" spans="1:3">
@@ -3457,10 +3619,10 @@
         <v>214</v>
       </c>
       <c r="B214">
-        <v>9.905223133530544</v>
+        <v>13.13565899778748</v>
       </c>
       <c r="C214">
-        <v>0.0041</v>
+        <v>0.00135</v>
       </c>
     </row>
     <row r="215" spans="1:3">
@@ -3468,10 +3630,10 @@
         <v>215</v>
       </c>
       <c r="B215">
-        <v>9.883965599929679</v>
+        <v>13.10683722398647</v>
       </c>
       <c r="C215">
-        <v>0.00414</v>
+        <v>0.00137</v>
       </c>
     </row>
     <row r="216" spans="1:3">
@@ -3479,10 +3641,10 @@
         <v>216</v>
       </c>
       <c r="B216">
-        <v>9.872665659169636</v>
+        <v>13.09271582191413</v>
       </c>
       <c r="C216">
-        <v>0.00416</v>
+        <v>0.00137</v>
       </c>
     </row>
     <row r="217" spans="1:3">
@@ -3490,10 +3652,10 @@
         <v>217</v>
       </c>
       <c r="B217">
-        <v>9.849932120558201</v>
+        <v>12.791723287275</v>
       </c>
       <c r="C217">
-        <v>0.00419</v>
+        <v>0.00152</v>
       </c>
     </row>
     <row r="218" spans="1:3">
@@ -3501,10 +3663,10 @@
         <v>218</v>
       </c>
       <c r="B218">
-        <v>9.846076538053282</v>
+        <v>12.79086391456494</v>
       </c>
       <c r="C218">
-        <v>0.0042</v>
+        <v>0.00152</v>
       </c>
     </row>
     <row r="219" spans="1:3">
@@ -3512,10 +3674,10 @@
         <v>219</v>
       </c>
       <c r="B219">
-        <v>9.816587625533309</v>
+        <v>12.7875996976664</v>
       </c>
       <c r="C219">
-        <v>0.00425</v>
+        <v>0.00153</v>
       </c>
     </row>
     <row r="220" spans="1:3">
@@ -3523,10 +3685,10 @@
         <v>220</v>
       </c>
       <c r="B220">
-        <v>9.815441661102501</v>
+        <v>12.74519633206633</v>
       </c>
       <c r="C220">
-        <v>0.00425</v>
+        <v>0.00155</v>
       </c>
     </row>
     <row r="221" spans="1:3">
@@ -3534,10 +3696,10 @@
         <v>221</v>
       </c>
       <c r="B221">
-        <v>9.811513751603567</v>
+        <v>12.68475211298685</v>
       </c>
       <c r="C221">
-        <v>0.00426</v>
+        <v>0.00158</v>
       </c>
     </row>
     <row r="222" spans="1:3">
@@ -3545,10 +3707,10 @@
         <v>222</v>
       </c>
       <c r="B222">
-        <v>9.80631005206461</v>
+        <v>12.56437981928316</v>
       </c>
       <c r="C222">
-        <v>0.00427</v>
+        <v>0.00165</v>
       </c>
     </row>
     <row r="223" spans="1:3">
@@ -3556,10 +3718,10 @@
         <v>223</v>
       </c>
       <c r="B223">
-        <v>9.805203406599134</v>
+        <v>12.5595131850544</v>
       </c>
       <c r="C223">
-        <v>0.00427</v>
+        <v>0.00165</v>
       </c>
     </row>
     <row r="224" spans="1:3">
@@ -3567,10 +3729,10 @@
         <v>224</v>
       </c>
       <c r="B224">
-        <v>9.771632496172021</v>
+        <v>12.5595131850544</v>
       </c>
       <c r="C224">
-        <v>0.00433</v>
+        <v>0.00165</v>
       </c>
     </row>
     <row r="225" spans="1:3">
@@ -3578,10 +3740,10 @@
         <v>225</v>
       </c>
       <c r="B225">
-        <v>9.765205843510119</v>
+        <v>12.53738878341422</v>
       </c>
       <c r="C225">
-        <v>0.00434</v>
+        <v>0.00167</v>
       </c>
     </row>
     <row r="226" spans="1:3">
@@ -3589,10 +3751,10 @@
         <v>226</v>
       </c>
       <c r="B226">
-        <v>9.760486025518251</v>
+        <v>12.52777225637967</v>
       </c>
       <c r="C226">
-        <v>0.00434</v>
+        <v>0.00167</v>
       </c>
     </row>
     <row r="227" spans="1:3">
@@ -3600,10 +3762,10 @@
         <v>227</v>
       </c>
       <c r="B227">
-        <v>9.740976862041084</v>
+        <v>12.19980581756582</v>
       </c>
       <c r="C227">
-        <v>0.00438</v>
+        <v>0.00188</v>
       </c>
     </row>
     <row r="228" spans="1:3">
@@ -3611,10 +3773,10 @@
         <v>228</v>
       </c>
       <c r="B228">
-        <v>9.726298065821684</v>
+        <v>12.16694471914278</v>
       </c>
       <c r="C228">
-        <v>0.0044</v>
+        <v>0.0019</v>
       </c>
     </row>
     <row r="229" spans="1:3">
@@ -3622,10 +3784,10 @@
         <v>229</v>
       </c>
       <c r="B229">
-        <v>9.70672190892204</v>
+        <v>12.1140404805533</v>
       </c>
       <c r="C229">
-        <v>0.00444</v>
+        <v>0.00193</v>
       </c>
     </row>
     <row r="230" spans="1:3">
@@ -3633,10 +3795,10 @@
         <v>230</v>
       </c>
       <c r="B230">
-        <v>9.67897123814322</v>
+        <v>12.11098636092658</v>
       </c>
       <c r="C230">
-        <v>0.00449</v>
+        <v>0.00194</v>
       </c>
     </row>
     <row r="231" spans="1:3">
@@ -3644,10 +3806,10 @@
         <v>231</v>
       </c>
       <c r="B231">
-        <v>9.355889239591546</v>
+        <v>12.10483222692974</v>
       </c>
       <c r="C231">
-        <v>0.0051</v>
+        <v>0.00194</v>
       </c>
     </row>
     <row r="232" spans="1:3">
@@ -3655,10 +3817,10 @@
         <v>232</v>
       </c>
       <c r="B232">
-        <v>9.276753058536535</v>
+        <v>12.04113314525648</v>
       </c>
       <c r="C232">
-        <v>0.00526</v>
+        <v>0.00198</v>
       </c>
     </row>
     <row r="233" spans="1:3">
@@ -3666,10 +3828,10 @@
         <v>233</v>
       </c>
       <c r="B233">
-        <v>9.276753058536535</v>
+        <v>11.98727756031096</v>
       </c>
       <c r="C233">
-        <v>0.00526</v>
+        <v>0.00202</v>
       </c>
     </row>
     <row r="234" spans="1:3">
@@ -3677,10 +3839,10 @@
         <v>234</v>
       </c>
       <c r="B234">
-        <v>9.148334146897385</v>
+        <v>11.92470343988838</v>
       </c>
       <c r="C234">
-        <v>0.00554</v>
+        <v>0.00207</v>
       </c>
     </row>
     <row r="235" spans="1:3">
@@ -3688,10 +3850,10 @@
         <v>235</v>
       </c>
       <c r="B235">
-        <v>8.952997428022993</v>
+        <v>11.88720087048381</v>
       </c>
       <c r="C235">
-        <v>0.006</v>
+        <v>0.0021</v>
       </c>
     </row>
     <row r="236" spans="1:3">
@@ -3699,10 +3861,10 @@
         <v>236</v>
       </c>
       <c r="B236">
-        <v>8.806005105501711</v>
+        <v>11.85400762288609</v>
       </c>
       <c r="C236">
-        <v>0.00637</v>
+        <v>0.00212</v>
       </c>
     </row>
     <row r="237" spans="1:3">
@@ -3710,10 +3872,10 @@
         <v>237</v>
       </c>
       <c r="B237">
-        <v>8.224830828553431</v>
+        <v>11.77148670813233</v>
       </c>
       <c r="C237">
-        <v>0.00809</v>
+        <v>0.00218</v>
       </c>
     </row>
     <row r="238" spans="1:3">
@@ -3721,10 +3883,10 @@
         <v>238</v>
       </c>
       <c r="B238">
-        <v>8.170635976414292</v>
+        <v>11.71211537131934</v>
       </c>
       <c r="C238">
-        <v>0.008279999999999999</v>
+        <v>0.00223</v>
       </c>
     </row>
     <row r="239" spans="1:3">
@@ -3732,10 +3894,10 @@
         <v>239</v>
       </c>
       <c r="B239">
-        <v>8.028422763451037</v>
+        <v>11.65757794582401</v>
       </c>
       <c r="C239">
-        <v>0.00878</v>
+        <v>0.00228</v>
       </c>
     </row>
     <row r="240" spans="1:3">
@@ -3743,10 +3905,10 @@
         <v>240</v>
       </c>
       <c r="B240">
-        <v>7.921479309656672</v>
+        <v>11.63786421903357</v>
       </c>
       <c r="C240">
-        <v>0.00919</v>
+        <v>0.00229</v>
       </c>
     </row>
     <row r="241" spans="1:3">
@@ -3754,10 +3916,10 @@
         <v>241</v>
       </c>
       <c r="B241">
-        <v>7.921479309656672</v>
+        <v>11.62962538620727</v>
       </c>
       <c r="C241">
-        <v>0.00919</v>
+        <v>0.0023</v>
       </c>
     </row>
     <row r="242" spans="1:3">
@@ -3765,10 +3927,10 @@
         <v>242</v>
       </c>
       <c r="B242">
-        <v>7.824549372871192</v>
+        <v>11.6294486463371</v>
       </c>
       <c r="C242">
-        <v>0.00957</v>
+        <v>0.0023</v>
       </c>
     </row>
     <row r="243" spans="1:3">
@@ -3776,10 +3938,10 @@
         <v>243</v>
       </c>
       <c r="B243">
-        <v>7.806344640833661</v>
+        <v>11.6294486463371</v>
       </c>
       <c r="C243">
-        <v>0.009650000000000001</v>
+        <v>0.0023</v>
       </c>
     </row>
     <row r="244" spans="1:3">
@@ -3787,10 +3949,604 @@
         <v>244</v>
       </c>
       <c r="B244">
-        <v>7.742090212251847</v>
+        <v>11.62944864633694</v>
       </c>
       <c r="C244">
-        <v>0.00991</v>
+        <v>0.0023</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3">
+      <c r="A245" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B245">
+        <v>11.62944864633694</v>
+      </c>
+      <c r="C245">
+        <v>0.0023</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3">
+      <c r="A246" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B246">
+        <v>11.62944864633554</v>
+      </c>
+      <c r="C246">
+        <v>0.0023</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3">
+      <c r="A247" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B247">
+        <v>11.62944864633554</v>
+      </c>
+      <c r="C247">
+        <v>0.0023</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3">
+      <c r="A248" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B248">
+        <v>11.62944864633554</v>
+      </c>
+      <c r="C248">
+        <v>0.0023</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3">
+      <c r="A249" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B249">
+        <v>11.62944864633554</v>
+      </c>
+      <c r="C249">
+        <v>0.0023</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3">
+      <c r="A250" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B250">
+        <v>11.62944864633554</v>
+      </c>
+      <c r="C250">
+        <v>0.0023</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3">
+      <c r="A251" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B251">
+        <v>11.62944864633539</v>
+      </c>
+      <c r="C251">
+        <v>0.0023</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3">
+      <c r="A252" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B252">
+        <v>11.62944864633539</v>
+      </c>
+      <c r="C252">
+        <v>0.0023</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3">
+      <c r="A253" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B253">
+        <v>11.62944864633539</v>
+      </c>
+      <c r="C253">
+        <v>0.0023</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3">
+      <c r="A254" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B254">
+        <v>11.62944864633539</v>
+      </c>
+      <c r="C254">
+        <v>0.0023</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3">
+      <c r="A255" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B255">
+        <v>11.62944864633527</v>
+      </c>
+      <c r="C255">
+        <v>0.0023</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3">
+      <c r="A256" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B256">
+        <v>11.628621114662</v>
+      </c>
+      <c r="C256">
+        <v>0.0023</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3">
+      <c r="A257" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B257">
+        <v>11.62827631063202</v>
+      </c>
+      <c r="C257">
+        <v>0.0023</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3">
+      <c r="A258" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B258">
+        <v>11.62518169421878</v>
+      </c>
+      <c r="C258">
+        <v>0.0023</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3">
+      <c r="A259" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B259">
+        <v>11.62517252577841</v>
+      </c>
+      <c r="C259">
+        <v>0.0023</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3">
+      <c r="A260" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B260">
+        <v>11.62124241735995</v>
+      </c>
+      <c r="C260">
+        <v>0.00231</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3">
+      <c r="A261" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B261">
+        <v>11.61700326358933</v>
+      </c>
+      <c r="C261">
+        <v>0.00231</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3">
+      <c r="A262" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B262">
+        <v>11.60597763662874</v>
+      </c>
+      <c r="C262">
+        <v>0.00232</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3">
+      <c r="A263" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B263">
+        <v>11.60004971263708</v>
+      </c>
+      <c r="C263">
+        <v>0.00232</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3">
+      <c r="A264" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B264">
+        <v>11.59550563620292</v>
+      </c>
+      <c r="C264">
+        <v>0.00233</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3">
+      <c r="A265" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B265">
+        <v>11.55274046345106</v>
+      </c>
+      <c r="C265">
+        <v>0.00236</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3">
+      <c r="A266" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B266">
+        <v>11.49664681713029</v>
+      </c>
+      <c r="C266">
+        <v>0.00241</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3">
+      <c r="A267" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B267">
+        <v>11.45361799432355</v>
+      </c>
+      <c r="C267">
+        <v>0.00245</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3">
+      <c r="A268" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B268">
+        <v>11.43364673159684</v>
+      </c>
+      <c r="C268">
+        <v>0.00247</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3">
+      <c r="A269" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B269">
+        <v>11.40886164138181</v>
+      </c>
+      <c r="C269">
+        <v>0.00249</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3">
+      <c r="A270" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B270">
+        <v>11.31895154928306</v>
+      </c>
+      <c r="C270">
+        <v>0.00257</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3">
+      <c r="A271" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B271">
+        <v>11.26867957707426</v>
+      </c>
+      <c r="C271">
+        <v>0.00262</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3">
+      <c r="A272" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B272">
+        <v>11.25982272776706</v>
+      </c>
+      <c r="C272">
+        <v>0.00263</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3">
+      <c r="A273" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B273">
+        <v>11.25959756606423</v>
+      </c>
+      <c r="C273">
+        <v>0.00263</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3">
+      <c r="A274" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B274">
+        <v>11.24137718963771</v>
+      </c>
+      <c r="C274">
+        <v>0.00265</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3">
+      <c r="A275" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B275">
+        <v>11.11949447443815</v>
+      </c>
+      <c r="C275">
+        <v>0.00277</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3">
+      <c r="A276" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B276">
+        <v>11.04160501015166</v>
+      </c>
+      <c r="C276">
+        <v>0.00285</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3">
+      <c r="A277" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B277">
+        <v>10.94306269485759</v>
+      </c>
+      <c r="C277">
+        <v>0.00295</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3">
+      <c r="A278" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B278">
+        <v>10.9157876977544</v>
+      </c>
+      <c r="C278">
+        <v>0.00298</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3">
+      <c r="A279" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B279">
+        <v>10.89540226424966</v>
+      </c>
+      <c r="C279">
+        <v>0.00301</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3">
+      <c r="A280" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B280">
+        <v>10.43220688607995</v>
+      </c>
+      <c r="C280">
+        <v>0.00357</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3">
+      <c r="A281" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B281">
+        <v>9.980724450407727</v>
+      </c>
+      <c r="C281">
+        <v>0.00424</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3">
+      <c r="A282" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B282">
+        <v>9.961021718640421</v>
+      </c>
+      <c r="C282">
+        <v>0.00427</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3">
+      <c r="A283" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="B283">
+        <v>9.898373714669173</v>
+      </c>
+      <c r="C283">
+        <v>0.00437</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3">
+      <c r="A284" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B284">
+        <v>9.877900529027107</v>
+      </c>
+      <c r="C284">
+        <v>0.00441</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3">
+      <c r="A285" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B285">
+        <v>9.870821906513532</v>
+      </c>
+      <c r="C285">
+        <v>0.00442</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3">
+      <c r="A286" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="B286">
+        <v>9.821255165734353</v>
+      </c>
+      <c r="C286">
+        <v>0.00451</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3">
+      <c r="A287" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B287">
+        <v>9.821255165734353</v>
+      </c>
+      <c r="C287">
+        <v>0.00451</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3">
+      <c r="A288" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="B288">
+        <v>9.116473615636346</v>
+      </c>
+      <c r="C288">
+        <v>0.00593</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3">
+      <c r="A289" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="B289">
+        <v>9.030470924563101</v>
+      </c>
+      <c r="C289">
+        <v>0.00613</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3">
+      <c r="A290" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B290">
+        <v>8.749518038839133</v>
+      </c>
+      <c r="C290">
+        <v>0.00686</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3">
+      <c r="A291" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="B291">
+        <v>8.672350590852583</v>
+      </c>
+      <c r="C291">
+        <v>0.00707</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3">
+      <c r="A292" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B292">
+        <v>8.618621537196935</v>
+      </c>
+      <c r="C292">
+        <v>0.00723</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3">
+      <c r="A293" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="B293">
+        <v>8.328409590974125</v>
+      </c>
+      <c r="C293">
+        <v>0.00812</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3">
+      <c r="A294" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="B294">
+        <v>8.154974024501486</v>
+      </c>
+      <c r="C294">
+        <v>0.00872</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3">
+      <c r="A295" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B295">
+        <v>8.101927393231321</v>
+      </c>
+      <c r="C295">
+        <v>0.00891</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3">
+      <c r="A296" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="B296">
+        <v>7.992520309668633</v>
+      </c>
+      <c r="C296">
+        <v>0.00932</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3">
+      <c r="A297" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="B297">
+        <v>7.952971763531569</v>
+      </c>
+      <c r="C297">
+        <v>0.009480000000000001</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3">
+      <c r="A298" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="B298">
+        <v>7.882028557741851</v>
+      </c>
+      <c r="C298">
+        <v>0.00976</v>
       </c>
     </row>
   </sheetData>
